--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -369,13 +369,34 @@
     <t>https://github.com/AlbertoLoranca/albertoloranca_parcial1</t>
   </si>
   <si>
-    <t>https://github.com/andreamgr/Parcial1/invitations</t>
-  </si>
-  <si>
     <t>tarea1 (sripts)</t>
   </si>
   <si>
     <t>tarea2 (finacci, factorial)</t>
+  </si>
+  <si>
+    <t>https://github.com/Vasopega/Valeria-Perez-Gallegos-</t>
+  </si>
+  <si>
+    <t>https://github.com/mjdelrio/mariajoseldelrio_parcial1</t>
+  </si>
+  <si>
+    <t>https://github.com/wendybarcenas/wendybarcenas_parcial1</t>
+  </si>
+  <si>
+    <t>https://github.com/andreamgr/Andrea_Munoz_Parcial1</t>
+  </si>
+  <si>
+    <t>https://github.com/A01196856/Mike-Garc-a-</t>
+  </si>
+  <si>
+    <t>https://github.com/A01731448/Julio-Aymerich-B</t>
+  </si>
+  <si>
+    <t>https://github.com/LuisFer52/A01651408</t>
+  </si>
+  <si>
+    <t>https://github.com/martinhernandezjuarez/martinhernandez</t>
   </si>
 </sst>
 </file>
@@ -404,12 +425,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -425,16 +452,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2698,8 +2724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E39" activeCellId="1" sqref="E39 E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2707,6 +2733,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2720,10 +2747,10 @@
         <v>90</v>
       </c>
       <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2751,7 +2778,7 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2768,7 +2795,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9">
@@ -2796,7 +2825,7 @@
       <c r="H5">
         <v>0.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2825,7 +2854,7 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +2883,7 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2871,7 +2900,9 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:9">
@@ -2899,7 +2930,7 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2928,7 +2959,7 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2957,7 +2988,7 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2986,7 +3017,7 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3015,7 +3046,7 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +3075,7 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3061,7 +3092,9 @@
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:9">
@@ -3089,7 +3122,7 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3118,7 +3151,7 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3135,7 +3168,9 @@
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:9">
@@ -3163,7 +3198,7 @@
       <c r="H19">
         <v>0.5</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3192,7 +3227,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3209,7 +3244,9 @@
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:9">
@@ -3237,7 +3274,7 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3254,7 +3291,9 @@
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:9">
@@ -3282,7 +3321,7 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3311,7 +3350,7 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3340,7 +3379,7 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3369,7 +3408,7 @@
       <c r="H27">
         <v>0.5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3437,7 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3427,7 +3466,7 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3444,8 +3483,21 @@
       <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
@@ -3472,7 +3524,7 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3501,7 +3553,7 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3530,7 +3582,7 @@
       <c r="H33">
         <v>0.5</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3559,7 +3611,7 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3577,10 +3629,19 @@
         <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1">
-        <v>404</v>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3608,7 +3669,7 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3637,7 +3698,7 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3666,7 +3727,7 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3695,7 +3756,7 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3724,7 +3785,7 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3761,9 +3822,16 @@
     <hyperlink ref="E26" r:id="rId29"/>
     <hyperlink ref="E32" r:id="rId30"/>
     <hyperlink ref="E35" r:id="rId31"/>
+    <hyperlink ref="E30" r:id="rId32"/>
+    <hyperlink ref="E21" r:id="rId33"/>
+    <hyperlink ref="E15" r:id="rId34"/>
+    <hyperlink ref="E4" r:id="rId35"/>
+    <hyperlink ref="E23" r:id="rId36"/>
+    <hyperlink ref="E18" r:id="rId37"/>
+    <hyperlink ref="E8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId32"/>
+  <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>https://github.com/martinhernandezjuarez/martinhernandez</t>
+  </si>
+  <si>
+    <t>se deben subir los .m</t>
   </si>
 </sst>
 </file>
@@ -2722,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2736,7 +2739,7 @@
     <col min="9" max="9" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2770,10 +2773,10 @@
         <v>110</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2782,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2798,9 +2801,20 @@
       <c r="E4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2817,19 +2831,19 @@
         <v>108</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2846,19 +2860,22 @@
         <v>115</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
+      <c r="J6" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2875,19 +2892,19 @@
         <v>96</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2903,9 +2920,20 @@
       <c r="E8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2922,19 +2950,19 @@
         <v>99</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2951,19 +2979,19 @@
         <v>93</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2980,19 +3008,19 @@
         <v>102</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3009,19 +3037,19 @@
         <v>107</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3038,19 +3066,19 @@
         <v>98</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3067,19 +3095,19 @@
         <v>112</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3095,9 +3123,20 @@
       <c r="E15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3143,13 +3182,13 @@
         <v>91</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
@@ -3171,7 +3210,18 @@
       <c r="E18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
@@ -3196,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -3219,13 +3269,13 @@
         <v>113</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -3247,7 +3297,18 @@
       <c r="E21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
@@ -3266,13 +3327,13 @@
         <v>103</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -3294,7 +3355,18 @@
       <c r="E23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
@@ -3313,13 +3385,13 @@
         <v>104</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -3342,13 +3414,13 @@
         <v>101</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
@@ -3371,13 +3443,13 @@
         <v>85</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
@@ -3400,13 +3472,13 @@
         <v>92</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -3429,13 +3501,13 @@
         <v>87</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="5">
         <v>0</v>
@@ -3458,13 +3530,13 @@
         <v>105</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -3487,13 +3559,13 @@
         <v>118</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -3545,13 +3617,13 @@
         <v>84</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
@@ -3574,16 +3646,16 @@
         <v>106</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I33" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3603,10 +3675,10 @@
         <v>100</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3632,13 +3704,13 @@
         <v>121</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="4">
         <v>0</v>
@@ -3690,13 +3762,13 @@
         <v>114</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -3719,13 +3791,13 @@
         <v>109</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="4">
         <v>0</v>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="6160" yWindow="1680" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2727,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="1680" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="320" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -399,14 +399,35 @@
     <t>https://github.com/martinhernandezjuarez/martinhernandez</t>
   </si>
   <si>
-    <t>se deben subir los .m</t>
+    <t>matrices tutorial</t>
+  </si>
+  <si>
+    <t>biseccion</t>
+  </si>
+  <si>
+    <t>secante</t>
+  </si>
+  <si>
+    <t>solo encontre fibonacci</t>
+  </si>
+  <si>
+    <t>me aparece vacio</t>
+  </si>
+  <si>
+    <t>tengo dudas con los 4 programas</t>
+  </si>
+  <si>
+    <t>no encontre programas</t>
+  </si>
+  <si>
+    <t>no encontre tarea de biseccion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +444,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,9 +480,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -465,8 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2725,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2739,7 +2770,7 @@
     <col min="9" max="9" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
@@ -2755,8 +2786,17 @@
       <c r="I1" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="J1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2782,10 +2822,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2813,8 +2856,14 @@
       <c r="I4" s="4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2840,10 +2889,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2869,13 +2921,16 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>126</v>
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2901,10 +2956,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2932,8 +2990,14 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2959,10 +3023,16 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2988,10 +3058,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3017,10 +3090,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3046,10 +3122,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3075,10 +3154,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3104,10 +3186,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3133,10 +3218,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3162,10 +3250,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3191,10 +3282,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3220,10 +3314,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3249,10 +3346,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3278,10 +3378,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3307,10 +3410,13 @@
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3338,8 +3444,11 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3365,10 +3474,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3396,8 +3508,14 @@
       <c r="I24" s="4">
         <v>0</v>
       </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3423,10 +3541,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3452,10 +3573,16 @@
         <v>1</v>
       </c>
       <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0</v>
       </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3481,10 +3608,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3510,10 +3640,13 @@
         <v>1</v>
       </c>
       <c r="I28" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3539,10 +3672,13 @@
         <v>1</v>
       </c>
       <c r="I29" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3568,10 +3704,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3597,10 +3736,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3626,10 +3768,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3655,10 +3800,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3684,10 +3832,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3713,10 +3864,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3742,10 +3896,13 @@
         <v>1</v>
       </c>
       <c r="I36" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3771,10 +3928,13 @@
         <v>1</v>
       </c>
       <c r="I37" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3800,10 +3960,16 @@
         <v>1</v>
       </c>
       <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>0</v>
       </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3831,8 +3997,11 @@
       <c r="I39" s="4">
         <v>1</v>
       </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3858,7 +4027,10 @@
         <v>1</v>
       </c>
       <c r="I40" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3903,6 +4075,7 @@
     <hyperlink ref="E8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="320" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -4075,7 +4075,6 @@
     <hyperlink ref="E8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -408,26 +408,26 @@
     <t>secante</t>
   </si>
   <si>
-    <t>solo encontre fibonacci</t>
-  </si>
-  <si>
     <t>me aparece vacio</t>
   </si>
   <si>
-    <t>tengo dudas con los 4 programas</t>
-  </si>
-  <si>
-    <t>no encontre programas</t>
-  </si>
-  <si>
-    <t>no encontre tarea de biseccion</t>
+    <t>raphson</t>
+  </si>
+  <si>
+    <t>no encontre curso de matrices</t>
+  </si>
+  <si>
+    <t>falto secante y raphson</t>
+  </si>
+  <si>
+    <t>falto curso matrices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,19 +456,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -485,15 +486,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2756,10 +2758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2767,10 +2769,10 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="9" max="9" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="E1" s="3" t="s">
         <v>86</v>
       </c>
@@ -2783,7 +2785,7 @@
       <c r="H1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="J1" t="s">
@@ -2795,8 +2797,11 @@
       <c r="L1" t="s">
         <v>128</v>
       </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2821,14 +2826,23 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2853,17 +2867,17 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2888,14 +2902,23 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2920,17 +2943,23 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>0.5</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>129</v>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2955,14 +2984,23 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2987,17 +3025,17 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3022,17 +3060,23 @@
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>0.5</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>131</v>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3057,14 +3101,23 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3089,14 +3142,23 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3121,14 +3183,23 @@
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3153,14 +3224,23 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3185,14 +3265,23 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>1</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3217,14 +3306,23 @@
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3249,14 +3347,23 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3281,14 +3388,26 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3313,14 +3432,23 @@
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>1</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3345,14 +3473,23 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3377,14 +3514,26 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3409,14 +3558,23 @@
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3441,14 +3599,23 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3473,14 +3640,23 @@
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>1</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3505,17 +3681,26 @@
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3540,14 +3725,23 @@
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3572,17 +3766,26 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>1</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3607,14 +3810,23 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3639,14 +3851,23 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="6">
         <v>1</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3671,14 +3892,23 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3703,14 +3933,23 @@
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3735,14 +3974,23 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>1</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3767,14 +4015,23 @@
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>1</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3799,14 +4056,23 @@
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3831,14 +4097,23 @@
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>1</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3863,14 +4138,23 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>1</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3895,14 +4179,23 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>1</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3927,14 +4220,23 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>1</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3959,17 +4261,23 @@
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38" t="s">
-        <v>133</v>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3994,14 +4302,23 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4026,10 +4343,19 @@
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="5">
         <v>1</v>
       </c>
       <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
         <v>1</v>
       </c>
     </row>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -421,6 +421,30 @@
   </si>
   <si>
     <t>falto curso matrices</t>
+  </si>
+  <si>
+    <t>equipo 1</t>
+  </si>
+  <si>
+    <t>quenombre</t>
+  </si>
+  <si>
+    <t>equipo 2</t>
+  </si>
+  <si>
+    <t>impostores</t>
+  </si>
+  <si>
+    <t>equipo 3</t>
+  </si>
+  <si>
+    <t>equipo 4</t>
+  </si>
+  <si>
+    <t>equipo 5</t>
+  </si>
+  <si>
+    <t>equipo 6</t>
   </si>
 </sst>
 </file>
@@ -464,12 +488,54 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -481,12 +547,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -496,10 +570,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="11">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,13 +600,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -563,13 +652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -615,13 +704,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -667,13 +756,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -719,13 +808,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -771,13 +860,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -823,13 +912,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -875,13 +964,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -927,13 +1016,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -979,13 +1068,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1031,13 +1120,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1083,13 +1172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1135,13 +1224,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1187,13 +1276,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1239,13 +1328,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1291,13 +1380,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1343,13 +1432,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1395,13 +1484,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1447,13 +1536,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1499,13 +1588,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1551,13 +1640,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1603,13 +1692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1655,13 +1744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1707,13 +1796,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1759,13 +1848,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1811,13 +1900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1863,13 +1952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1915,13 +2004,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1967,13 +2056,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2019,13 +2108,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2071,13 +2160,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2123,13 +2212,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2175,13 +2264,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2227,13 +2316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2279,13 +2368,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2331,13 +2420,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2383,13 +2472,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2758,50 +2847,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="F1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>127</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>128</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2814,22 +2903,22 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="K3">
@@ -2841,8 +2930,11 @@
       <c r="M3">
         <v>1</v>
       </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2855,29 +2947,32 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2890,22 +2985,22 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5">
@@ -2917,8 +3012,11 @@
       <c r="M5">
         <v>1</v>
       </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2931,24 +3029,24 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <v>0.5</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -2958,8 +3056,11 @@
       <c r="M6">
         <v>1</v>
       </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2972,22 +3073,22 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7">
@@ -2999,8 +3100,11 @@
       <c r="M7">
         <v>1</v>
       </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3013,29 +3117,30 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3048,24 +3153,24 @@
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
         <v>0.5</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
@@ -3075,8 +3180,11 @@
       <c r="M9">
         <v>1</v>
       </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3089,22 +3197,22 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
         <v>1</v>
       </c>
       <c r="K10">
@@ -3116,8 +3224,11 @@
       <c r="M10">
         <v>1</v>
       </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3130,22 +3241,22 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
         <v>1</v>
       </c>
       <c r="K11">
@@ -3157,8 +3268,11 @@
       <c r="M11">
         <v>1</v>
       </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3171,22 +3285,22 @@
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <v>1</v>
       </c>
       <c r="K12">
@@ -3198,8 +3312,11 @@
       <c r="M12">
         <v>1</v>
       </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3212,22 +3329,22 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <v>1</v>
       </c>
       <c r="K13">
@@ -3239,8 +3356,11 @@
       <c r="M13">
         <v>1</v>
       </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3253,22 +3373,22 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
         <v>1</v>
       </c>
       <c r="K14">
@@ -3280,8 +3400,11 @@
       <c r="M14">
         <v>1</v>
       </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3294,22 +3417,22 @@
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
         <v>1</v>
       </c>
       <c r="K15">
@@ -3321,8 +3444,11 @@
       <c r="M15">
         <v>1</v>
       </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3335,22 +3461,22 @@
       <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
         <v>1</v>
       </c>
       <c r="K16">
@@ -3362,8 +3488,11 @@
       <c r="M16">
         <v>1</v>
       </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3376,38 +3505,41 @@
       <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
         <v>1</v>
       </c>
       <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3420,22 +3552,22 @@
       <c r="D18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
         <v>1</v>
       </c>
       <c r="K18">
@@ -3447,8 +3579,11 @@
       <c r="M18">
         <v>1</v>
       </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3461,22 +3596,22 @@
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19">
@@ -3488,8 +3623,11 @@
       <c r="M19">
         <v>1</v>
       </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3502,38 +3640,41 @@
       <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
         <v>1</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3546,22 +3687,22 @@
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
         <v>1</v>
       </c>
       <c r="K21">
@@ -3573,8 +3714,11 @@
       <c r="M21">
         <v>1</v>
       </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3587,35 +3731,36 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
       </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3628,22 +3773,22 @@
       <c r="D23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
         <v>1</v>
       </c>
       <c r="K23">
@@ -3655,8 +3800,11 @@
       <c r="M23">
         <v>1</v>
       </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3669,38 +3817,41 @@
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3713,22 +3864,22 @@
       <c r="D25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
         <v>1</v>
       </c>
       <c r="K25">
@@ -3740,8 +3891,11 @@
       <c r="M25">
         <v>1</v>
       </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3754,38 +3908,41 @@
       <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3798,22 +3955,22 @@
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
         <v>1</v>
       </c>
       <c r="K27">
@@ -3825,8 +3982,11 @@
       <c r="M27">
         <v>1</v>
       </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3839,22 +3999,22 @@
       <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
         <v>1</v>
       </c>
       <c r="K28">
@@ -3866,8 +4026,11 @@
       <c r="M28">
         <v>1</v>
       </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3880,22 +4043,22 @@
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
         <v>1</v>
       </c>
       <c r="K29">
@@ -3907,8 +4070,11 @@
       <c r="M29">
         <v>1</v>
       </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3921,22 +4087,22 @@
       <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
         <v>1</v>
       </c>
       <c r="K30">
@@ -3948,8 +4114,11 @@
       <c r="M30">
         <v>1</v>
       </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3962,22 +4131,22 @@
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31">
@@ -3989,8 +4158,11 @@
       <c r="M31">
         <v>1</v>
       </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4003,22 +4175,22 @@
       <c r="D32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="5">
-        <v>1</v>
-      </c>
-      <c r="J32">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
         <v>1</v>
       </c>
       <c r="K32">
@@ -4030,8 +4202,11 @@
       <c r="M32">
         <v>1</v>
       </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4044,22 +4219,22 @@
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
         <v>1</v>
       </c>
       <c r="K33">
@@ -4071,8 +4246,11 @@
       <c r="M33">
         <v>1</v>
       </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4085,22 +4263,22 @@
       <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34">
@@ -4112,8 +4290,11 @@
       <c r="M34">
         <v>1</v>
       </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4126,22 +4307,22 @@
       <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
         <v>1</v>
       </c>
       <c r="K35">
@@ -4153,8 +4334,11 @@
       <c r="M35">
         <v>1</v>
       </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4167,22 +4351,22 @@
       <c r="D36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
         <v>1</v>
       </c>
       <c r="K36">
@@ -4194,8 +4378,11 @@
       <c r="M36">
         <v>1</v>
       </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4208,22 +4395,22 @@
       <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
         <v>1</v>
       </c>
       <c r="K37">
@@ -4235,8 +4422,11 @@
       <c r="M37">
         <v>1</v>
       </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4249,35 +4439,38 @@
       <c r="D38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4290,22 +4483,22 @@
       <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
         <v>1</v>
       </c>
       <c r="K39">
@@ -4317,8 +4510,11 @@
       <c r="M39">
         <v>1</v>
       </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4331,22 +4527,22 @@
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
         <v>1</v>
       </c>
       <c r="K40">
@@ -4356,51 +4552,55 @@
         <v>1</v>
       </c>
       <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1"/>
-    <hyperlink ref="E16" r:id="rId2"/>
-    <hyperlink ref="E17" r:id="rId3"/>
-    <hyperlink ref="E27" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E31" r:id="rId6"/>
-    <hyperlink ref="E39" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
-    <hyperlink ref="E36" r:id="rId9"/>
-    <hyperlink ref="E40" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E9" r:id="rId12"/>
-    <hyperlink ref="E34" r:id="rId13"/>
-    <hyperlink ref="E25" r:id="rId14"/>
-    <hyperlink ref="E11" r:id="rId15"/>
-    <hyperlink ref="E22" r:id="rId16"/>
-    <hyperlink ref="E24" r:id="rId17"/>
-    <hyperlink ref="E29" r:id="rId18"/>
-    <hyperlink ref="E33" r:id="rId19"/>
-    <hyperlink ref="E12" r:id="rId20"/>
-    <hyperlink ref="E5" r:id="rId21"/>
-    <hyperlink ref="E38" r:id="rId22"/>
-    <hyperlink ref="E3" r:id="rId23"/>
-    <hyperlink ref="E19" r:id="rId24"/>
-    <hyperlink ref="E14" r:id="rId25"/>
-    <hyperlink ref="E20" r:id="rId26"/>
-    <hyperlink ref="E37" r:id="rId27"/>
-    <hyperlink ref="E6" r:id="rId28"/>
-    <hyperlink ref="E26" r:id="rId29"/>
-    <hyperlink ref="E32" r:id="rId30"/>
-    <hyperlink ref="E35" r:id="rId31"/>
-    <hyperlink ref="E30" r:id="rId32"/>
-    <hyperlink ref="E21" r:id="rId33"/>
-    <hyperlink ref="E15" r:id="rId34"/>
-    <hyperlink ref="E4" r:id="rId35"/>
-    <hyperlink ref="E23" r:id="rId36"/>
-    <hyperlink ref="E18" r:id="rId37"/>
-    <hyperlink ref="E8" r:id="rId38"/>
+    <hyperlink ref="F28" r:id="rId1"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F17" r:id="rId3"/>
+    <hyperlink ref="F27" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="F31" r:id="rId6"/>
+    <hyperlink ref="F39" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F36" r:id="rId9"/>
+    <hyperlink ref="F40" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F9" r:id="rId12"/>
+    <hyperlink ref="F34" r:id="rId13"/>
+    <hyperlink ref="F25" r:id="rId14"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F22" r:id="rId16"/>
+    <hyperlink ref="F24" r:id="rId17"/>
+    <hyperlink ref="F29" r:id="rId18"/>
+    <hyperlink ref="F33" r:id="rId19"/>
+    <hyperlink ref="F12" r:id="rId20"/>
+    <hyperlink ref="F5" r:id="rId21"/>
+    <hyperlink ref="F38" r:id="rId22"/>
+    <hyperlink ref="F3" r:id="rId23"/>
+    <hyperlink ref="F19" r:id="rId24"/>
+    <hyperlink ref="F14" r:id="rId25"/>
+    <hyperlink ref="F20" r:id="rId26"/>
+    <hyperlink ref="F37" r:id="rId27"/>
+    <hyperlink ref="F6" r:id="rId28"/>
+    <hyperlink ref="F26" r:id="rId29"/>
+    <hyperlink ref="F32" r:id="rId30"/>
+    <hyperlink ref="F35" r:id="rId31"/>
+    <hyperlink ref="F30" r:id="rId32"/>
+    <hyperlink ref="F21" r:id="rId33"/>
+    <hyperlink ref="F15" r:id="rId34"/>
+    <hyperlink ref="F4" r:id="rId35"/>
+    <hyperlink ref="F23" r:id="rId36"/>
+    <hyperlink ref="F18" r:id="rId37"/>
+    <hyperlink ref="F8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="163">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -408,21 +409,9 @@
     <t>secante</t>
   </si>
   <si>
-    <t>me aparece vacio</t>
-  </si>
-  <si>
     <t>raphson</t>
   </si>
   <si>
-    <t>no encontre curso de matrices</t>
-  </si>
-  <si>
-    <t>falto secante y raphson</t>
-  </si>
-  <si>
-    <t>falto curso matrices</t>
-  </si>
-  <si>
     <t>equipo 1</t>
   </si>
   <si>
@@ -445,13 +434,88 @@
   </si>
   <si>
     <t>equipo 6</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>houston</t>
+  </si>
+  <si>
+    <t>https://github.com/MtzAlejandra/proyecto_parcial1</t>
+  </si>
+  <si>
+    <t>https://github.com/Sergiomo29/proyecto_parcial1</t>
+  </si>
+  <si>
+    <t>https://github.com/A01423719/Proyecto-Parcial-1</t>
+  </si>
+  <si>
+    <t>https://github.com/wendybarcenas/ProyectoParcial1</t>
+  </si>
+  <si>
+    <t>* revisar formula raphson</t>
+  </si>
+  <si>
+    <t>https://github.com/elliotvelazquez/ProyectoParcial1</t>
+  </si>
+  <si>
+    <t>https://github.com/iancalhy/Proyecto_Parcial1_Metodos</t>
+  </si>
+  <si>
+    <t>https://github.com/Angel-Molina/Proyecto-Primer-Parcial</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/maC037WY/parcial-1-m%C3%A9todos-n%C3%BAmericos</t>
+  </si>
+  <si>
+    <t>repo</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>tecnico</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>matlab</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>https://github.com/Cristina-Cordova/demo-parcial1Equipo1</t>
+  </si>
+  <si>
+    <t>equipo4</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Parcial 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -487,8 +551,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,6 +608,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -547,7 +654,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -559,8 +666,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -577,8 +709,16 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="36">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -589,6 +729,31 @@
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2847,21 +3012,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1.83203125" customWidth="1"/>
+    <col min="4" max="4" width="0.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="5"/>
+    <col min="13" max="13" width="3.6640625" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="21" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="18" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="19" customWidth="1"/>
+    <col min="18" max="19" width="5.1640625" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="20"/>
+    <col min="26" max="26" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:26">
       <c r="F1" s="3" t="s">
         <v>86</v>
       </c>
@@ -2887,10 +3061,85 @@
         <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="2" spans="1:26">
+      <c r="O2" s="21">
+        <v>20</v>
+      </c>
+      <c r="P2" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>30</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>20</v>
+      </c>
+      <c r="V2">
+        <v>20</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="16">
+        <f>O2+P2+Q2+Y2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2904,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>110</v>
@@ -2933,8 +3182,47 @@
       <c r="N3">
         <v>1</v>
       </c>
+      <c r="O3" s="21">
+        <f>(SUM(G3:N3) * 20)/8</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>SUM(R3:X3)*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="Z3" s="16">
+        <f>O3+P3+Q3+Y3</f>
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:26">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2948,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>122</v>
@@ -2968,11 +3256,56 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>129</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" ref="O4:O40" si="0">(SUM(G4:N4) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>20</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="20">
+        <f t="shared" ref="Y4:Y39" si="1">SUM(R4:X4)*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="Z4" s="16">
+        <f t="shared" ref="Z4:Z40" si="2">O4+P4+Q4+Y4</f>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:26">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2986,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>108</v>
@@ -3015,8 +3348,47 @@
       <c r="N5">
         <v>1</v>
       </c>
+      <c r="O5" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P5" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>20</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:26">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3030,7 +3402,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>115</v>
@@ -3059,8 +3431,47 @@
       <c r="N6">
         <v>1</v>
       </c>
+      <c r="O6" s="21">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="P6" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
+      </c>
+      <c r="W6">
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="2"/>
+        <v>68.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:26">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3074,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>96</v>
@@ -3103,8 +3514,47 @@
       <c r="N7">
         <v>1</v>
       </c>
+      <c r="O7" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P7" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>30</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>20</v>
+      </c>
+      <c r="U7">
+        <v>20</v>
+      </c>
+      <c r="V7">
+        <v>20</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:26">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3136,11 +3586,56 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>129</v>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:26">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3154,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>99</v>
@@ -3183,8 +3678,47 @@
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9" s="21">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>20</v>
+      </c>
+      <c r="V9">
+        <v>20</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z9" s="16">
+        <f t="shared" si="2"/>
+        <v>88.75</v>
+      </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:26">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3198,7 +3732,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>93</v>
@@ -3227,8 +3761,47 @@
       <c r="N10">
         <v>1</v>
       </c>
+      <c r="O10" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P10" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>30</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>20</v>
+      </c>
+      <c r="U10">
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <v>20</v>
+      </c>
+      <c r="W10">
+        <v>10</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:26">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3242,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>102</v>
@@ -3271,8 +3844,47 @@
       <c r="N11">
         <v>1</v>
       </c>
+      <c r="O11" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P11" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
+      </c>
+      <c r="U11">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>20</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z11" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:26">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3286,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>107</v>
@@ -3315,8 +3927,47 @@
       <c r="N12">
         <v>1</v>
       </c>
+      <c r="O12" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P12" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
+      </c>
+      <c r="U12">
+        <v>20</v>
+      </c>
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:26">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3330,7 +3981,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>98</v>
@@ -3359,8 +4010,47 @@
       <c r="N13">
         <v>1</v>
       </c>
+      <c r="O13" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P13" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>30</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13">
+        <v>20</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="Z13" s="16">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:26">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3374,7 +4064,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>112</v>
@@ -3403,8 +4093,47 @@
       <c r="N14">
         <v>1</v>
       </c>
+      <c r="O14" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P14" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:26">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3418,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>120</v>
@@ -3447,8 +4176,47 @@
       <c r="N15">
         <v>1</v>
       </c>
+      <c r="O15" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P15" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>30</v>
+      </c>
+      <c r="R15" s="4">
+        <v>10</v>
+      </c>
+      <c r="S15" s="4">
+        <v>10</v>
+      </c>
+      <c r="T15" s="4">
+        <v>20</v>
+      </c>
+      <c r="U15" s="4">
+        <v>20</v>
+      </c>
+      <c r="V15" s="4">
+        <v>20</v>
+      </c>
+      <c r="W15" s="4">
+        <v>10</v>
+      </c>
+      <c r="X15" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:26">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3462,7 +4230,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>88</v>
@@ -3491,8 +4259,47 @@
       <c r="N16">
         <v>1</v>
       </c>
+      <c r="O16" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P16" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>30</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
+      <c r="U16">
+        <v>20</v>
+      </c>
+      <c r="V16">
+        <v>20</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:26">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3506,7 +4313,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>91</v>
@@ -3535,11 +4342,47 @@
       <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
-        <v>131</v>
+      <c r="O17" s="21">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="P17" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>30</v>
+      </c>
+      <c r="R17" s="4">
+        <v>10</v>
+      </c>
+      <c r="S17" s="4">
+        <v>10</v>
+      </c>
+      <c r="T17" s="4">
+        <v>20</v>
+      </c>
+      <c r="U17" s="4">
+        <v>20</v>
+      </c>
+      <c r="V17" s="4">
+        <v>20</v>
+      </c>
+      <c r="W17" s="4">
+        <v>10</v>
+      </c>
+      <c r="X17" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:26">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3553,7 +4396,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>124</v>
@@ -3582,8 +4425,47 @@
       <c r="N18">
         <v>1</v>
       </c>
+      <c r="O18" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P18" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>30</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <v>20</v>
+      </c>
+      <c r="U18">
+        <v>20</v>
+      </c>
+      <c r="V18">
+        <v>20</v>
+      </c>
+      <c r="W18">
+        <v>10</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:26">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3597,7 +4479,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>111</v>
@@ -3626,8 +4508,47 @@
       <c r="N19">
         <v>1</v>
       </c>
+      <c r="O19" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>10</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z19" s="16">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:26">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3641,7 +4562,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>113</v>
@@ -3670,11 +4591,47 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" s="4" t="s">
-        <v>131</v>
+      <c r="O20" s="21">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="P20" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>30</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>20</v>
+      </c>
+      <c r="U20">
+        <v>20</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:26">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3688,7 +4645,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>119</v>
@@ -3717,8 +4674,47 @@
       <c r="N21">
         <v>1</v>
       </c>
+      <c r="O21" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P21" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>30</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>20</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:26">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3731,7 +4727,9 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>103</v>
       </c>
@@ -3759,8 +4757,47 @@
       <c r="N22">
         <v>1</v>
       </c>
+      <c r="O22" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P22" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <v>10</v>
+      </c>
+      <c r="S22" s="4">
+        <v>10</v>
+      </c>
+      <c r="T22" s="4">
+        <v>20</v>
+      </c>
+      <c r="U22" s="4">
+        <v>20</v>
+      </c>
+      <c r="V22" s="4">
+        <v>20</v>
+      </c>
+      <c r="W22" s="4">
+        <v>10</v>
+      </c>
+      <c r="X22" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y22" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:26">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3774,7 +4811,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>123</v>
@@ -3803,8 +4840,47 @@
       <c r="N23">
         <v>1</v>
       </c>
+      <c r="O23" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P23" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>30</v>
+      </c>
+      <c r="R23">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <v>20</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>10</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z23" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:26">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3818,7 +4894,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>104</v>
@@ -3847,11 +4923,47 @@
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24" t="s">
-        <v>132</v>
+      <c r="O24" s="21">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="P24" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>30</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>20</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>20</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:26">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3865,7 +4977,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>101</v>
@@ -3894,8 +5006,47 @@
       <c r="N25">
         <v>1</v>
       </c>
+      <c r="O25" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P25" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>30</v>
+      </c>
+      <c r="R25" s="4">
+        <v>10</v>
+      </c>
+      <c r="S25" s="4">
+        <v>10</v>
+      </c>
+      <c r="T25" s="4">
+        <v>20</v>
+      </c>
+      <c r="U25" s="4">
+        <v>20</v>
+      </c>
+      <c r="V25" s="4">
+        <v>20</v>
+      </c>
+      <c r="W25" s="4">
+        <v>10</v>
+      </c>
+      <c r="X25" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:26">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3909,7 +5060,7 @@
         <v>21</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>85</v>
@@ -3938,11 +5089,47 @@
       <c r="N26">
         <v>1</v>
       </c>
-      <c r="O26" t="s">
-        <v>133</v>
+      <c r="O26" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="P26" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>30</v>
+      </c>
+      <c r="R26" s="4">
+        <v>10</v>
+      </c>
+      <c r="S26" s="4">
+        <v>10</v>
+      </c>
+      <c r="T26" s="4">
+        <v>20</v>
+      </c>
+      <c r="U26" s="4">
+        <v>20</v>
+      </c>
+      <c r="V26" s="4">
+        <v>20</v>
+      </c>
+      <c r="W26" s="4">
+        <v>10</v>
+      </c>
+      <c r="X26" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:26">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3956,7 +5143,7 @@
         <v>11</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>92</v>
@@ -3985,8 +5172,47 @@
       <c r="N27">
         <v>1</v>
       </c>
+      <c r="O27" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P27" s="18">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4">
+        <v>10</v>
+      </c>
+      <c r="S27" s="4">
+        <v>10</v>
+      </c>
+      <c r="T27" s="4">
+        <v>20</v>
+      </c>
+      <c r="U27" s="4">
+        <v>20</v>
+      </c>
+      <c r="V27" s="4">
+        <v>20</v>
+      </c>
+      <c r="W27" s="4">
+        <v>10</v>
+      </c>
+      <c r="X27" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:26">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4000,7 +5226,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>87</v>
@@ -4029,8 +5255,47 @@
       <c r="N28">
         <v>1</v>
       </c>
+      <c r="O28" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P28" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>10</v>
+      </c>
+      <c r="S28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <v>20</v>
+      </c>
+      <c r="U28">
+        <v>20</v>
+      </c>
+      <c r="V28">
+        <v>20</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Z28" s="16">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:26">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4044,7 +5309,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>105</v>
@@ -4073,8 +5338,47 @@
       <c r="N29">
         <v>1</v>
       </c>
+      <c r="O29" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P29" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>30</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+      <c r="U29">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <v>20</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:26">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4088,7 +5392,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>118</v>
@@ -4117,8 +5421,47 @@
       <c r="N30">
         <v>1</v>
       </c>
+      <c r="O30" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P30" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>30</v>
+      </c>
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>20</v>
+      </c>
+      <c r="U30">
+        <v>20</v>
+      </c>
+      <c r="V30">
+        <v>20</v>
+      </c>
+      <c r="W30">
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z30" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:26">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4132,7 +5475,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>94</v>
@@ -4161,8 +5504,47 @@
       <c r="N31">
         <v>1</v>
       </c>
+      <c r="O31" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P31" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <v>20</v>
+      </c>
+      <c r="U31">
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>20</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Z31" s="16">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:26">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4176,7 +5558,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>84</v>
@@ -4205,8 +5587,47 @@
       <c r="N32">
         <v>1</v>
       </c>
+      <c r="O32" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P32" s="18">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>30</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>20</v>
+      </c>
+      <c r="V32">
+        <v>20</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z32" s="16">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:26">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4220,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>106</v>
@@ -4249,8 +5670,47 @@
       <c r="N33">
         <v>1</v>
       </c>
+      <c r="O33" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P33" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>30</v>
+      </c>
+      <c r="R33">
+        <v>10</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>20</v>
+      </c>
+      <c r="U33">
+        <v>20</v>
+      </c>
+      <c r="V33">
+        <v>20</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+      <c r="X33">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z33" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:26">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4264,7 +5724,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>100</v>
@@ -4293,8 +5753,47 @@
       <c r="N34">
         <v>1</v>
       </c>
+      <c r="O34" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P34" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>30</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <v>20</v>
+      </c>
+      <c r="U34">
+        <v>20</v>
+      </c>
+      <c r="V34">
+        <v>20</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="Z34" s="16">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:26">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4308,7 +5807,7 @@
         <v>34</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>121</v>
@@ -4337,8 +5836,47 @@
       <c r="N35">
         <v>1</v>
       </c>
+      <c r="O35" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P35" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>30</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>20</v>
+      </c>
+      <c r="U35">
+        <v>20</v>
+      </c>
+      <c r="V35">
+        <v>20</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z35" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:26">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4352,7 +5890,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>97</v>
@@ -4381,8 +5919,47 @@
       <c r="N36">
         <v>1</v>
       </c>
+      <c r="O36" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P36" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <v>20</v>
+      </c>
+      <c r="V36">
+        <v>20</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="20">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="Z36" s="16">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:26">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4396,7 +5973,7 @@
         <v>21</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>114</v>
@@ -4425,8 +6002,47 @@
       <c r="N37">
         <v>1</v>
       </c>
+      <c r="O37" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P37" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>30</v>
+      </c>
+      <c r="R37" s="4">
+        <v>10</v>
+      </c>
+      <c r="S37" s="4">
+        <v>10</v>
+      </c>
+      <c r="T37" s="4">
+        <v>20</v>
+      </c>
+      <c r="U37" s="4">
+        <v>20</v>
+      </c>
+      <c r="V37" s="4">
+        <v>20</v>
+      </c>
+      <c r="W37" s="4">
+        <v>10</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="Z37" s="16">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:26">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4440,7 +6056,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>109</v>
@@ -4469,8 +6085,47 @@
       <c r="N38">
         <v>0</v>
       </c>
+      <c r="O38" s="21">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="P38" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>30</v>
+      </c>
+      <c r="R38">
+        <v>10</v>
+      </c>
+      <c r="S38">
+        <v>10</v>
+      </c>
+      <c r="T38">
+        <v>20</v>
+      </c>
+      <c r="U38">
+        <v>20</v>
+      </c>
+      <c r="V38">
+        <v>20</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z38" s="16">
+        <f t="shared" si="2"/>
+        <v>92.5</v>
+      </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:26">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4484,7 +6139,7 @@
         <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>95</v>
@@ -4513,8 +6168,47 @@
       <c r="N39">
         <v>1</v>
       </c>
+      <c r="O39" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P39" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>30</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+      <c r="T39">
+        <v>20</v>
+      </c>
+      <c r="U39">
+        <v>20</v>
+      </c>
+      <c r="V39">
+        <v>20</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="Z39" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:26">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4528,7 +6222,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>97</v>
@@ -4556,6 +6250,45 @@
       </c>
       <c r="N40">
         <v>1</v>
+      </c>
+      <c r="O40" s="21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P40" s="18">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>30</v>
+      </c>
+      <c r="R40">
+        <v>10</v>
+      </c>
+      <c r="S40">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <v>20</v>
+      </c>
+      <c r="U40">
+        <v>20</v>
+      </c>
+      <c r="V40">
+        <v>20</v>
+      </c>
+      <c r="W40">
+        <v>10</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40" s="20">
+        <f>SUM(R40:X40)*0.4</f>
+        <v>40</v>
+      </c>
+      <c r="Z40" s="16">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4600,7 +6333,6 @@
     <hyperlink ref="F8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4608,4 +6340,132 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0.65625</v>
+      </c>
+      <c r="D10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="U6" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3377,15 +3377,15 @@
         <v>10</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="16">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4036,18 +4036,18 @@
         <v>20</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z13" s="16">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4119,18 +4119,18 @@
         <v>20</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y14" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z14" s="16">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4765,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="Q22" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R22" s="4">
         <v>10</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="Z22" s="16">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5180,7 +5180,7 @@
         <v>7</v>
       </c>
       <c r="Q27" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R27" s="4">
         <v>10</v>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="Z27" s="16">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -5263,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R28">
         <v>10</v>
@@ -5284,15 +5284,15 @@
         <v>10</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y28" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z28" s="16">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -5367,15 +5367,15 @@
         <v>10</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y29" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z29" s="16">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -5533,15 +5533,15 @@
         <v>10</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y31" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z31" s="16">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:26">
@@ -5592,7 +5592,7 @@
         <v>20</v>
       </c>
       <c r="P32" s="18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="19">
         <v>30</v>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="Z32" s="16">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -5779,18 +5779,18 @@
         <v>20</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y34" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z34" s="16">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:26">
@@ -5945,18 +5945,18 @@
         <v>20</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="20">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z36" s="16">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:26">
@@ -6031,15 +6031,15 @@
         <v>10</v>
       </c>
       <c r="X37" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y37" s="20">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z37" s="16">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:26">
@@ -6074,20 +6074,20 @@
         <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="21">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="P38" s="18">
         <v>10</v>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="Z38" s="16">
         <f t="shared" si="2"/>
-        <v>92.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -6347,7 +6347,7 @@
   <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U6" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3254,26 +3254,26 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" ref="O4:O40" si="0">(SUM(G4:N4) * 20)/8</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P4" s="18">
         <v>0</v>
       </c>
       <c r="Q4" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R4">
         <v>10</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="Z4" s="16">
         <f t="shared" ref="Z4:Z40" si="2">O4+P4+Q4+Y4</f>
-        <v>40</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3439,7 +3439,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R6">
         <v>10</v>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="Z6" s="16">
         <f t="shared" si="2"/>
-        <v>68.75</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4513,10 +4513,10 @@
         <v>20</v>
       </c>
       <c r="P19" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R19">
         <v>10</v>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="Z19" s="16">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -4743,10 +4743,10 @@
         <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4759,7 +4759,7 @@
       </c>
       <c r="O22" s="21">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P22" s="18">
         <v>10</v>
@@ -4794,7 +4794,7 @@
       </c>
       <c r="Z22" s="16">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -5260,7 +5260,7 @@
         <v>20</v>
       </c>
       <c r="P28" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="19">
         <v>30</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="Z28" s="16">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:26">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="2320" yWindow="20" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -771,8 +771,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -823,8 +823,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -875,8 +875,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -927,8 +927,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -979,8 +979,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1031,8 +1031,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1083,8 +1083,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1135,8 +1135,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1187,8 +1187,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1239,8 +1239,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1291,8 +1291,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1343,8 +1343,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1395,8 +1395,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1447,8 +1447,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1499,8 +1499,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1551,8 +1551,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1603,8 +1603,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1655,8 +1655,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1707,8 +1707,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1759,8 +1759,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1811,8 +1811,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1863,8 +1863,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1915,8 +1915,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1967,8 +1967,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2019,8 +2019,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2071,8 +2071,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2123,8 +2123,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2175,8 +2175,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2227,8 +2227,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2279,8 +2279,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2331,8 +2331,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2383,8 +2383,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2435,8 +2435,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2487,8 +2487,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2539,8 +2539,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2591,8 +2591,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2643,8 +2643,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3014,17 +3014,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="1.83203125" customWidth="1"/>
     <col min="4" max="4" width="0.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="5"/>
+    <col min="7" max="7" width="1.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="3.1640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="3.6640625" customWidth="1"/>
     <col min="14" max="14" width="2.6640625" customWidth="1"/>
     <col min="15" max="15" width="6.33203125" style="21" customWidth="1"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="176">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>regresion_lineal</t>
+  </si>
+  <si>
+    <t>https://github.com/Caro0602/CarolinaCruzFlores_parcial2</t>
   </si>
 </sst>
 </file>
@@ -10548,8 +10551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10565,7 +10568,9 @@
     <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" customWidth="1"/>
     <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="15" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" style="21" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" style="19" customWidth="1"/>
@@ -11042,22 +11047,22 @@
         <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -11073,7 +11078,7 @@
       </c>
       <c r="P7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q7" s="18">
         <v>0</v>
@@ -11108,7 +11113,7 @@
       </c>
       <c r="AA7" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="177">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>https://github.com/Caro0602/CarolinaCruzFlores_parcial2</t>
+  </si>
+  <si>
+    <t>https://github.com/miguel-lv/MiguelAngelLopezVieyra_Parcial_2</t>
   </si>
 </sst>
 </file>
@@ -10551,8 +10554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12163,7 +12166,7 @@
         <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="G20">
         <v>0</v>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="179">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -545,20 +545,26 @@
     <t>newthon-raphson</t>
   </si>
   <si>
-    <t>regresion_lineal</t>
-  </si>
-  <si>
     <t>https://github.com/Caro0602/CarolinaCruzFlores_parcial2</t>
   </si>
   <si>
     <t>https://github.com/miguel-lv/MiguelAngelLopezVieyra_Parcial_2</t>
+  </si>
+  <si>
+    <t>sistema ec lineales</t>
+  </si>
+  <si>
+    <t>tlacuachitos</t>
+  </si>
+  <si>
+    <t>pendiente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -600,6 +606,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="15">
@@ -737,7 +748,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -762,6 +773,8 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -812,13 +825,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -864,13 +877,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -916,13 +929,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -968,13 +981,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1020,13 +1033,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1072,13 +1085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1124,13 +1137,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1176,13 +1189,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1228,13 +1241,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1280,13 +1293,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1332,13 +1345,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1384,13 +1397,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1436,13 +1449,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1488,13 +1501,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1540,13 +1553,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1592,13 +1605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1644,13 +1657,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1696,13 +1709,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1748,13 +1761,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1800,13 +1813,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1852,13 +1865,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1904,13 +1917,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1956,13 +1969,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2008,13 +2021,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2060,13 +2073,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2112,13 +2125,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2164,13 +2177,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2216,13 +2229,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2268,13 +2281,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2320,13 +2333,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2372,13 +2385,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2424,13 +2437,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2476,13 +2489,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2528,13 +2541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2580,13 +2593,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2632,13 +2645,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2684,13 +2697,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2736,13 +2749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2788,13 +2801,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2840,13 +2853,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2892,13 +2905,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2944,13 +2957,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -2996,13 +3009,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3048,13 +3061,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3100,13 +3113,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3152,13 +3165,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3204,13 +3217,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3256,13 +3269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3308,13 +3321,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3360,13 +3373,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3412,13 +3425,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3464,13 +3477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3516,13 +3529,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3568,13 +3581,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3620,13 +3633,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3672,13 +3685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3724,13 +3737,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3776,13 +3789,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3828,13 +3841,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3880,13 +3893,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3932,13 +3945,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3984,13 +3997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4036,13 +4049,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4088,13 +4101,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4140,13 +4153,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4192,13 +4205,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4244,13 +4257,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4296,13 +4309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4348,13 +4361,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4400,13 +4413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4452,13 +4465,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4504,13 +4517,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4556,13 +4569,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4608,13 +4621,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4660,13 +4673,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4712,13 +4725,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4764,13 +4777,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4816,13 +4829,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4868,13 +4881,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4920,13 +4933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -4972,13 +4985,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5024,13 +5037,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5076,13 +5089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5128,13 +5141,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5180,13 +5193,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5232,13 +5245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5284,13 +5297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5336,13 +5349,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5388,13 +5401,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5440,13 +5453,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5492,13 +5505,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5544,13 +5557,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5596,13 +5609,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5648,13 +5661,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5700,13 +5713,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5752,13 +5765,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5804,13 +5817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5856,13 +5869,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5908,13 +5921,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -5960,13 +5973,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6012,13 +6025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6064,13 +6077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6116,13 +6129,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6168,13 +6181,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6220,13 +6233,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6272,13 +6285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6324,13 +6337,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6376,13 +6389,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6428,13 +6441,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6480,13 +6493,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6532,13 +6545,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6584,13 +6597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6636,13 +6649,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6688,13 +6701,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6740,13 +6753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6792,13 +6805,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6844,13 +6857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6896,13 +6909,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -6948,13 +6961,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7000,13 +7013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7052,13 +7065,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7104,13 +7117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7156,13 +7169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7208,13 +7221,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7260,13 +7273,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7312,13 +7325,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7364,13 +7377,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7416,13 +7429,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7468,13 +7481,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7520,13 +7533,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7572,13 +7585,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7624,13 +7637,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7676,13 +7689,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7728,13 +7741,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7780,13 +7793,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7832,13 +7845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7884,13 +7897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7936,13 +7949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7988,13 +8001,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -8040,13 +8053,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -8092,13 +8105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -8144,13 +8157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -8196,13 +8209,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -8248,13 +8261,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -10554,8 +10567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10564,16 +10577,16 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="1.83203125" customWidth="1"/>
     <col min="4" max="4" width="0.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="12" max="12" width="6.5" customWidth="1"/>
-    <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="12" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" style="21" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" style="19" customWidth="1"/>
@@ -10583,35 +10596,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>167</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>172</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>173</v>
-      </c>
-      <c r="O1" t="s">
-        <v>174</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>160</v>
@@ -10705,19 +10715,19 @@
       <c r="E3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
         <v>1</v>
       </c>
       <c r="K3">
@@ -10727,7 +10737,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -10736,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="21">
-        <f t="shared" ref="P3:P40" si="0">(SUM(G3:M3) * 20)/8</f>
+        <f>(SUM(H3:N3) * 20)/8</f>
         <v>15</v>
       </c>
       <c r="Q3" s="18">
@@ -10788,22 +10798,22 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
       <c r="K4">
@@ -10822,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="21">
-        <f t="shared" si="0"/>
+        <f>(SUM(H4:N4) * 20)/8</f>
         <v>0</v>
       </c>
       <c r="Q4" s="18">
@@ -10853,11 +10863,11 @@
         <v>0</v>
       </c>
       <c r="Z4" s="20">
-        <f t="shared" ref="Z4:Z39" si="1">SUM(S4:Y4)*0.4</f>
+        <f t="shared" ref="Z4:Z39" si="0">SUM(S4:Y4)*0.4</f>
         <v>0</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" ref="AA4:AA40" si="2">P4+Q4+R4+Z4</f>
+        <f t="shared" ref="AA4:AA40" si="1">P4+Q4+R4+Z4</f>
         <v>0</v>
       </c>
     </row>
@@ -10877,26 +10887,26 @@
       <c r="E5" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -10908,42 +10918,42 @@
         <v>0</v>
       </c>
       <c r="P5" s="21">
+        <f>(SUM(H5:N5) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -10963,19 +10973,17 @@
       <c r="E6" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6">
@@ -10994,42 +11002,42 @@
         <v>0</v>
       </c>
       <c r="P6" s="21">
+        <f>(SUM(H6:N6) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="20">
+      <c r="AA6" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11046,29 +11054,27 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+      <c r="F7" s="22"/>
+      <c r="G7" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
         <v>1</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -11080,42 +11086,42 @@
         <v>0</v>
       </c>
       <c r="P7" s="21">
+        <f>(SUM(H7:N7) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11133,19 +11139,17 @@
         <v>16</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <v>0</v>
       </c>
       <c r="K8">
@@ -11164,42 +11168,42 @@
         <v>0</v>
       </c>
       <c r="P8" s="21">
+        <f>(SUM(H8:N8) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>0</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="18">
-        <v>0</v>
-      </c>
-      <c r="R8" s="19">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="20">
+      <c r="AA8" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11219,20 +11223,20 @@
       <c r="E9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -11250,42 +11254,42 @@
         <v>0</v>
       </c>
       <c r="P9" s="21">
+        <f>(SUM(H9:N9) * 20)/8</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
@@ -11305,26 +11309,24 @@
       <c r="E10" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
         <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -11336,42 +11338,42 @@
         <v>0</v>
       </c>
       <c r="P10" s="21">
+        <f>(SUM(H10:N10) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11391,26 +11393,24 @@
       <c r="E11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
         <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -11422,42 +11422,42 @@
         <v>0</v>
       </c>
       <c r="P11" s="21">
+        <f>(SUM(H11:N11) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>0</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11477,19 +11477,19 @@
       <c r="E12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
         <v>1</v>
       </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <v>0</v>
       </c>
       <c r="K12">
@@ -11508,42 +11508,42 @@
         <v>0</v>
       </c>
       <c r="P12" s="21">
+        <f>(SUM(H12:N12) * 20)/8</f>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>0</v>
-      </c>
-      <c r="R12" s="19">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="16">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -11560,29 +11560,29 @@
       <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11594,42 +11594,42 @@
         <v>0</v>
       </c>
       <c r="P13" s="21">
+        <f>(SUM(H13:N13) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11649,26 +11649,24 @@
       <c r="E14" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
         <v>1</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -11680,42 +11678,42 @@
         <v>0</v>
       </c>
       <c r="P14" s="21">
+        <f>(SUM(H14:N14) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11735,26 +11733,24 @@
       <c r="E15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
         <v>1</v>
       </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
         <v>1</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -11766,42 +11762,42 @@
         <v>0</v>
       </c>
       <c r="P15" s="21">
+        <f>(SUM(H15:N15) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11821,26 +11817,26 @@
       <c r="E16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
         <v>1</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -11852,42 +11848,42 @@
         <v>0</v>
       </c>
       <c r="P16" s="21">
+        <f>(SUM(H16:N16) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q16" s="18">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -11907,19 +11903,17 @@
       <c r="E17" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
         <v>0</v>
       </c>
       <c r="K17">
@@ -11938,42 +11932,42 @@
         <v>0</v>
       </c>
       <c r="P17" s="21">
+        <f>(SUM(H17:N17) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="18">
-        <v>0</v>
-      </c>
-      <c r="R17" s="19">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="20">
+      <c r="AA17" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11993,26 +11987,24 @@
       <c r="E18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="7"/>
+      <c r="G18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
         <v>1</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
         <v>1</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -12024,42 +12016,42 @@
         <v>0</v>
       </c>
       <c r="P18" s="21">
+        <f>(SUM(H18:N18) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="19">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -12079,26 +12071,24 @@
       <c r="E19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19" s="5">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
         <v>1</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -12110,42 +12100,42 @@
         <v>0</v>
       </c>
       <c r="P19" s="21">
+        <f>(SUM(H19:N19) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>0</v>
-      </c>
-      <c r="R19" s="19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -12165,19 +12155,17 @@
       <c r="E20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
         <v>0</v>
       </c>
       <c r="K20">
@@ -12196,42 +12184,42 @@
         <v>0</v>
       </c>
       <c r="P20" s="21">
+        <f>(SUM(H20:N20) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="18">
-        <v>0</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="20">
+      <c r="AA20" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12251,20 +12239,18 @@
       <c r="E21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="5">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -12282,42 +12268,42 @@
         <v>0</v>
       </c>
       <c r="P21" s="21">
+        <f>(SUM(H21:N21) * 20)/8</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="20">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>0</v>
-      </c>
-      <c r="R21" s="19">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="16">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -12337,20 +12323,18 @@
       <c r="E22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -12368,42 +12352,42 @@
         <v>0</v>
       </c>
       <c r="P22" s="21">
+        <f>(SUM(H22:N22) * 20)/8</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>0</v>
+      </c>
+      <c r="R22" s="19">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="20">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Q22" s="18">
-        <v>0</v>
-      </c>
-      <c r="R22" s="19">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="16">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -12423,26 +12407,24 @@
       <c r="E23" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
         <v>1</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -12454,42 +12436,42 @@
         <v>0</v>
       </c>
       <c r="P23" s="21">
+        <f>(SUM(H23:N23) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>0</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -12509,19 +12491,17 @@
       <c r="E24" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <v>0</v>
       </c>
       <c r="K24">
@@ -12540,42 +12520,42 @@
         <v>0</v>
       </c>
       <c r="P24" s="21">
+        <f>(SUM(H24:N24) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>0</v>
+      </c>
+      <c r="R24" s="19">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="18">
-        <v>0</v>
-      </c>
-      <c r="R24" s="19">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="20">
+      <c r="AA24" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12595,26 +12575,24 @@
       <c r="E25" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
         <v>1</v>
       </c>
-      <c r="I25" s="5">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
         <v>1</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -12626,42 +12604,42 @@
         <v>0</v>
       </c>
       <c r="P25" s="21">
+        <f>(SUM(H25:N25) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q25" s="18">
-        <v>0</v>
-      </c>
-      <c r="R25" s="19">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -12681,20 +12659,18 @@
       <c r="E26" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -12712,42 +12688,42 @@
         <v>0</v>
       </c>
       <c r="P26" s="21">
+        <f>(SUM(H26:N26) * 20)/8</f>
+        <v>5</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q26" s="18">
-        <v>0</v>
-      </c>
-      <c r="R26" s="19">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="16">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -12767,26 +12743,24 @@
       <c r="E27" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="5">
         <v>1</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -12798,42 +12772,42 @@
         <v>0</v>
       </c>
       <c r="P27" s="21">
+        <f>(SUM(H27:N27) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>0</v>
+      </c>
+      <c r="R27" s="19">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>0</v>
-      </c>
-      <c r="R27" s="19">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -12853,19 +12827,17 @@
       <c r="E28" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>0</v>
       </c>
       <c r="K28">
@@ -12884,42 +12856,42 @@
         <v>0</v>
       </c>
       <c r="P28" s="21">
+        <f>(SUM(H28:N28) * 20)/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>0</v>
+      </c>
+      <c r="R28" s="19">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="18">
-        <v>0</v>
-      </c>
-      <c r="R28" s="19">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="20">
+      <c r="AA28" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="16">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12939,26 +12911,24 @@
       <c r="E29" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="5">
-        <v>1</v>
-      </c>
-      <c r="J29">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
         <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -12970,42 +12940,42 @@
         <v>0</v>
       </c>
       <c r="P29" s="21">
+        <f>(SUM(H29:N29) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>0</v>
+      </c>
+      <c r="R29" s="19">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>0</v>
-      </c>
-      <c r="R29" s="19">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13025,26 +12995,24 @@
       <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1"/>
+      <c r="G30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="5">
         <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -13056,42 +13024,42 @@
         <v>0</v>
       </c>
       <c r="P30" s="21">
+        <f>(SUM(H30:N30) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>0</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q30" s="18">
-        <v>0</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13111,26 +13079,24 @@
       <c r="E31" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31" s="5">
-        <v>1</v>
-      </c>
-      <c r="J31">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5">
         <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -13142,42 +13108,42 @@
         <v>0</v>
       </c>
       <c r="P31" s="21">
+        <f>(SUM(H31:N31) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
+      <c r="R31" s="19">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q31" s="18">
-        <v>0</v>
-      </c>
-      <c r="R31" s="19">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13195,28 +13161,28 @@
         <v>2</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
         <v>1</v>
       </c>
-      <c r="I32" s="5">
-        <v>1</v>
-      </c>
-      <c r="J32">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="5">
         <v>1</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -13228,42 +13194,42 @@
         <v>0</v>
       </c>
       <c r="P32" s="21">
+        <f>(SUM(H32:N32) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>0</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q32" s="18">
-        <v>0</v>
-      </c>
-      <c r="R32" s="19">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13283,26 +13249,24 @@
       <c r="E33" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
       <c r="H33">
         <v>1</v>
       </c>
-      <c r="I33" s="5">
-        <v>1</v>
-      </c>
-      <c r="J33">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
         <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -13314,42 +13278,42 @@
         <v>0</v>
       </c>
       <c r="P33" s="21">
+        <f>(SUM(H33:N33) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q33" s="18">
-        <v>0</v>
-      </c>
-      <c r="R33" s="19">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13369,26 +13333,24 @@
       <c r="E34" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
       <c r="H34">
         <v>1</v>
       </c>
-      <c r="I34" s="5">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
         <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -13400,42 +13362,42 @@
         <v>0</v>
       </c>
       <c r="P34" s="21">
+        <f>(SUM(H34:N34) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="R34" s="19">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q34" s="18">
-        <v>0</v>
-      </c>
-      <c r="R34" s="19">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13455,26 +13417,24 @@
       <c r="E35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -13486,42 +13446,42 @@
         <v>0</v>
       </c>
       <c r="P35" s="21">
+        <f>(SUM(H35:N35) * 20)/8</f>
+        <v>5</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>0</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q35" s="18">
-        <v>0</v>
-      </c>
-      <c r="R35" s="19">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="16">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
@@ -13541,26 +13501,24 @@
       <c r="E36" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36">
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
         <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -13572,42 +13530,42 @@
         <v>0</v>
       </c>
       <c r="P36" s="21">
+        <f>(SUM(H36:N36) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>0</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>0</v>
-      </c>
-      <c r="R36" s="19">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13627,26 +13585,24 @@
       <c r="E37" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37">
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
         <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -13658,42 +13614,42 @@
         <v>0</v>
       </c>
       <c r="P37" s="21">
+        <f>(SUM(H37:N37) * 20)/8</f>
+        <v>12.5</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="20">
         <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="Q37" s="18">
-        <v>0</v>
-      </c>
-      <c r="R37" s="19">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="16">
-        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
@@ -13711,22 +13667,20 @@
         <v>41</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
       <c r="H38">
         <v>1</v>
       </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -13744,42 +13698,42 @@
         <v>0</v>
       </c>
       <c r="P38" s="21">
+        <f>(SUM(H38:N38) * 20)/8</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>0</v>
+      </c>
+      <c r="R38" s="19">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="20">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Q38" s="18">
-        <v>0</v>
-      </c>
-      <c r="R38" s="19">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="16">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -13797,28 +13751,26 @@
         <v>21</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="5">
-        <v>1</v>
-      </c>
-      <c r="J39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
         <v>1</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -13830,42 +13782,42 @@
         <v>0</v>
       </c>
       <c r="P39" s="21">
+        <f>(SUM(H39:N39) * 20)/8</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>0</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="20">
         <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="Q39" s="18">
-        <v>0</v>
-      </c>
-      <c r="R39" s="19">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="16">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
     </row>
@@ -13883,28 +13835,26 @@
         <v>2</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
       <c r="H40">
         <v>1</v>
       </c>
-      <c r="I40" s="5">
-        <v>1</v>
-      </c>
-      <c r="J40">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5">
         <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -13916,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="21">
-        <f t="shared" si="0"/>
+        <f>(SUM(H40:N40) * 20)/8</f>
         <v>12.5</v>
       </c>
       <c r="Q40" s="18">
@@ -13951,50 +13901,50 @@
         <v>0</v>
       </c>
       <c r="AA40" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F28" r:id="rId1"/>
-    <hyperlink ref="F16" r:id="rId2"/>
-    <hyperlink ref="F17" r:id="rId3"/>
-    <hyperlink ref="F27" r:id="rId4"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F31" r:id="rId6"/>
-    <hyperlink ref="F39" r:id="rId7"/>
-    <hyperlink ref="F7" r:id="rId8"/>
-    <hyperlink ref="F36" r:id="rId9"/>
-    <hyperlink ref="F40" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F9" r:id="rId12"/>
-    <hyperlink ref="F34" r:id="rId13"/>
-    <hyperlink ref="F25" r:id="rId14"/>
-    <hyperlink ref="F11" r:id="rId15"/>
-    <hyperlink ref="F22" r:id="rId16"/>
-    <hyperlink ref="F24" r:id="rId17"/>
-    <hyperlink ref="F29" r:id="rId18"/>
-    <hyperlink ref="F33" r:id="rId19"/>
-    <hyperlink ref="F12" r:id="rId20"/>
-    <hyperlink ref="F5" r:id="rId21"/>
-    <hyperlink ref="F38" r:id="rId22"/>
-    <hyperlink ref="F3" r:id="rId23"/>
-    <hyperlink ref="F19" r:id="rId24"/>
-    <hyperlink ref="F14" r:id="rId25"/>
-    <hyperlink ref="F20" r:id="rId26"/>
-    <hyperlink ref="F37" r:id="rId27"/>
-    <hyperlink ref="F6" r:id="rId28"/>
-    <hyperlink ref="F26" r:id="rId29"/>
-    <hyperlink ref="F32" r:id="rId30"/>
-    <hyperlink ref="F35" r:id="rId31"/>
-    <hyperlink ref="F30" r:id="rId32"/>
-    <hyperlink ref="F21" r:id="rId33"/>
-    <hyperlink ref="F15" r:id="rId34"/>
-    <hyperlink ref="F4" r:id="rId35"/>
-    <hyperlink ref="F23" r:id="rId36"/>
-    <hyperlink ref="F18" r:id="rId37"/>
-    <hyperlink ref="F8" r:id="rId38"/>
+    <hyperlink ref="G28" r:id="rId1"/>
+    <hyperlink ref="G16" r:id="rId2"/>
+    <hyperlink ref="G17" r:id="rId3"/>
+    <hyperlink ref="G27" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G31" r:id="rId6"/>
+    <hyperlink ref="G39" r:id="rId7"/>
+    <hyperlink ref="G7" r:id="rId8"/>
+    <hyperlink ref="G36" r:id="rId9"/>
+    <hyperlink ref="G40" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G9" r:id="rId12"/>
+    <hyperlink ref="G34" r:id="rId13"/>
+    <hyperlink ref="G25" r:id="rId14"/>
+    <hyperlink ref="G11" r:id="rId15"/>
+    <hyperlink ref="G22" r:id="rId16"/>
+    <hyperlink ref="G24" r:id="rId17"/>
+    <hyperlink ref="G29" r:id="rId18"/>
+    <hyperlink ref="G33" r:id="rId19"/>
+    <hyperlink ref="G12" r:id="rId20"/>
+    <hyperlink ref="G5" r:id="rId21"/>
+    <hyperlink ref="G38" r:id="rId22"/>
+    <hyperlink ref="G3" r:id="rId23"/>
+    <hyperlink ref="G19" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="G20" r:id="rId26"/>
+    <hyperlink ref="G37" r:id="rId27"/>
+    <hyperlink ref="G6" r:id="rId28"/>
+    <hyperlink ref="G26" r:id="rId29"/>
+    <hyperlink ref="G32" r:id="rId30"/>
+    <hyperlink ref="G35" r:id="rId31"/>
+    <hyperlink ref="G30" r:id="rId32"/>
+    <hyperlink ref="G21" r:id="rId33"/>
+    <hyperlink ref="G15" r:id="rId34"/>
+    <hyperlink ref="G4" r:id="rId35"/>
+    <hyperlink ref="G23" r:id="rId36"/>
+    <hyperlink ref="G18" r:id="rId37"/>
+    <hyperlink ref="G8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId39"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="188">
   <si>
     <t>Estrella de Alhely Hernández Mérida</t>
   </si>
@@ -558,13 +558,40 @@
   </si>
   <si>
     <t>pendiente</t>
+  </si>
+  <si>
+    <t>trello</t>
+  </si>
+  <si>
+    <t>https://github.com/Angel-Molina/ProyectoSegundoParcial</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/FvPBjUCc/parcial-2-m%C3%A9todos-n%C3%BAmericos</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>https://github.com/MtzAlejandra/proyecto_parcial2</t>
+  </si>
+  <si>
+    <t>https://github.com/A01423719/Proyecto-Parcial-2-Equipo-3</t>
+  </si>
+  <si>
+    <t>https://github.com/wendybarcenas/ProyectoParcial2</t>
+  </si>
+  <si>
+    <t>https://github.com/Caro0602/Proyecto_Parcial2</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/9fhugu4j/m%C3%A9todos-num%C3%A9ricos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,8 +639,15 @@
       <color theme="0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +732,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF215967"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -708,7 +748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -747,8 +787,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -775,8 +835,9 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="58">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
@@ -814,6 +875,26 @@
     <cellStyle name="Hipervínculo visitado" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10567,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10577,7 +10658,8 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="1.83203125" customWidth="1"/>
     <col min="4" max="4" width="0.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
@@ -10590,7 +10672,8 @@
     <col min="16" max="16" width="6.33203125" style="21" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" style="18" customWidth="1"/>
     <col min="18" max="18" width="8.83203125" style="19" customWidth="1"/>
-    <col min="19" max="20" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
     <col min="26" max="26" width="10.83203125" style="20"/>
     <col min="27" max="27" width="10.83203125" style="16"/>
   </cols>
@@ -10648,7 +10731,7 @@
         <v>155</v>
       </c>
       <c r="X1" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="Y1" t="s">
         <v>157</v>
@@ -10740,49 +10823,49 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="21">
-        <f>(SUM(H3:N3) * 20)/8</f>
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="P3" s="24">
+        <f>(SUM(H3:O3) * 20)/8</f>
+        <v>20</v>
       </c>
       <c r="Q3" s="18">
         <v>10</v>
       </c>
       <c r="R3" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z3" s="20">
         <f>SUM(S3:Y3)*0.4</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA3" s="16">
         <f>P3+Q3+R3+Z3</f>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -10808,67 +10891,67 @@
         <v>122</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <f>(SUM(H4:N4) * 20)/8</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P4" s="24">
+        <f t="shared" ref="P4:P40" si="0">(SUM(H4:O4) * 20)/8</f>
+        <v>17.5</v>
       </c>
       <c r="Q4" s="18">
         <v>0</v>
       </c>
       <c r="R4" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z4" s="20">
-        <f t="shared" ref="Z4:Z39" si="0">SUM(S4:Y4)*0.4</f>
-        <v>0</v>
+        <f t="shared" ref="Z4:Z37" si="1">SUM(S4:Y4)*0.4</f>
+        <v>40</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" ref="AA4:AA40" si="1">P4+Q4+R4+Z4</f>
-        <v>0</v>
+        <f t="shared" ref="AA4:AA40" si="2">P4+Q4+R4+Z4</f>
+        <v>87.5</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -10909,52 +10992,52 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <f>(SUM(H5:N5) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P5" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q5" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R5" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA5" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -10978,67 +11061,67 @@
         <v>115</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
-        <f>(SUM(H6:N6) * 20)/8</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P6" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q6" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R6" s="19">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z6" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA6" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -11077,52 +11160,52 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21">
-        <f>(SUM(H7:N7) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q7" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA7" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -11167,8 +11250,8 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="21">
-        <f>(SUM(H8:N8) * 20)/8</f>
+      <c r="P8" s="24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q8" s="18">
@@ -11199,11 +11282,11 @@
         <v>0</v>
       </c>
       <c r="Z8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AA8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -11251,46 +11334,46 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="21">
-        <f>(SUM(H9:N9) * 20)/8</f>
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="P9" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="Q9" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA9" s="16">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -11329,52 +11412,52 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="21">
-        <f>(SUM(H10:N10) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P10" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q10" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA10" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -11413,52 +11496,52 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="21">
-        <f>(SUM(H11:N11) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P11" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q11" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R11" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z11" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA11" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -11507,8 +11590,8 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="21">
-        <f>(SUM(H12:N12) * 20)/8</f>
+      <c r="P12" s="24">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="Q12" s="18">
@@ -11518,33 +11601,33 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA12" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -11585,52 +11668,52 @@
         <v>1</v>
       </c>
       <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>10</v>
+      </c>
+      <c r="R13" s="19">
+        <v>30</v>
+      </c>
+      <c r="S13" s="4">
+        <v>10</v>
+      </c>
+      <c r="T13" s="4">
+        <v>10</v>
+      </c>
+      <c r="U13" s="4">
+        <v>20</v>
+      </c>
+      <c r="V13" s="4">
+        <v>20</v>
+      </c>
+      <c r="W13" s="4">
+        <v>20</v>
+      </c>
+      <c r="X13" s="4">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="21">
-        <f>(SUM(H13:N13) * 20)/8</f>
-        <v>12.5</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
+      <c r="Y13" s="4">
+        <v>20</v>
       </c>
       <c r="Z13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -11669,52 +11752,52 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="21">
-        <f>(SUM(H14:N14) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P14" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q14" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R14" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -11753,17 +11836,17 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="21">
-        <f>(SUM(H15:N15) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P15" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q15" s="18">
         <v>0</v>
@@ -11772,33 +11855,33 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA15" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -11839,52 +11922,52 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="21">
-        <f>(SUM(H16:N16) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q16" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R16" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA16" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -11908,19 +11991,19 @@
         <v>91</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -11931,44 +12014,44 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" s="21">
-        <f>(SUM(H17:N17) * 20)/8</f>
-        <v>0</v>
+      <c r="P17" s="24">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="Q17" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R17" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z17" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA17" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>92.5</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -12007,52 +12090,52 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" s="21">
-        <f>(SUM(H18:N18) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P18" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q18" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R18" s="19">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA18" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -12091,52 +12174,52 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" s="21">
-        <f>(SUM(H19:N19) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P19" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q19" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R19" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA19" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -12160,32 +12243,32 @@
         <v>175</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="21">
-        <f>(SUM(H20:N20) * 20)/8</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P20" s="24">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
       </c>
       <c r="Q20" s="18">
         <v>0</v>
@@ -12194,33 +12277,33 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z20" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>57.5</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -12253,23 +12336,23 @@
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="21">
-        <f>(SUM(H21:N21) * 20)/8</f>
-        <v>7.5</v>
+        <v>1</v>
+      </c>
+      <c r="P21" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q21" s="18">
         <v>0</v>
@@ -12278,33 +12361,33 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z21" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA21" s="16">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -12337,58 +12420,58 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" s="21">
-        <f>(SUM(H22:N22) * 20)/8</f>
-        <v>7.5</v>
+        <v>1</v>
+      </c>
+      <c r="P22" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q22" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA22" s="16">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -12427,52 +12510,52 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" s="21">
-        <f>(SUM(H23:N23) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P23" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q23" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA23" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -12519,44 +12602,44 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" s="21">
-        <f>(SUM(H24:N24) * 20)/8</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>0</v>
-      </c>
-      <c r="R24" s="19">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="20">
+      <c r="P24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Q24" s="18">
+        <v>10</v>
+      </c>
+      <c r="R24" s="19">
+        <v>30</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>20</v>
+      </c>
+      <c r="V24">
+        <v>20</v>
+      </c>
+      <c r="W24">
+        <v>20</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="AA24" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -12595,52 +12678,52 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" s="21">
-        <f>(SUM(H25:N25) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P25" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q25" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R25" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA25" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -12667,64 +12750,64 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="5">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="21">
-        <f>(SUM(H26:N26) * 20)/8</f>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q26" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -12763,52 +12846,52 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" s="21">
-        <f>(SUM(H27:N27) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P27" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q27" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R27" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z27" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA27" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -12838,26 +12921,26 @@
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28" s="21">
-        <f>(SUM(H28:N28) * 20)/8</f>
-        <v>0</v>
+      <c r="P28" s="24">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
       </c>
       <c r="Q28" s="18">
         <v>0</v>
@@ -12866,33 +12949,33 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA28" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>52.5</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -12931,52 +13014,52 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" s="21">
-        <f>(SUM(H29:N29) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P29" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q29" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R29" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA29" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -13015,52 +13098,52 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="21">
-        <f>(SUM(H30:N30) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P30" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q30" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R30" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA30" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -13099,52 +13182,52 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="21">
-        <f>(SUM(H31:N31) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P31" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q31" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R31" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA31" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -13185,52 +13268,52 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" s="21">
-        <f>(SUM(H32:N32) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P32" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q32" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R32" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA32" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -13269,52 +13352,52 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" s="21">
-        <f>(SUM(H33:N33) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P33" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q33" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R33" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA33" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -13353,17 +13436,17 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" s="21">
-        <f>(SUM(H34:N34) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P34" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q34" s="18">
         <v>0</v>
@@ -13371,34 +13454,34 @@
       <c r="R34" s="19">
         <v>0</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="4">
+        <v>10</v>
+      </c>
+      <c r="T34" s="4">
+        <v>10</v>
+      </c>
+      <c r="U34" s="4">
+        <v>20</v>
+      </c>
+      <c r="V34" s="4">
+        <v>20</v>
+      </c>
+      <c r="W34" s="4">
+        <v>20</v>
+      </c>
+      <c r="X34" s="4">
         <v>0</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
+      <c r="Y34" s="4">
+        <v>20</v>
       </c>
       <c r="Z34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA34" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -13422,13 +13505,13 @@
         <v>121</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -13437,52 +13520,52 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" s="21">
-        <f>(SUM(H35:N35) * 20)/8</f>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P35" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q35" s="18">
         <v>0</v>
       </c>
       <c r="R35" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z35" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA35" s="16">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -13521,52 +13604,52 @@
         <v>1</v>
       </c>
       <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>10</v>
+      </c>
+      <c r="R36" s="19">
+        <v>30</v>
+      </c>
+      <c r="S36" s="4">
+        <v>10</v>
+      </c>
+      <c r="T36" s="4">
+        <v>10</v>
+      </c>
+      <c r="U36" s="4">
+        <v>20</v>
+      </c>
+      <c r="V36" s="4">
+        <v>20</v>
+      </c>
+      <c r="W36" s="4">
+        <v>20</v>
+      </c>
+      <c r="X36" s="4">
         <v>0</v>
       </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" s="21">
-        <f>(SUM(H36:N36) * 20)/8</f>
-        <v>12.5</v>
-      </c>
-      <c r="Q36" s="18">
-        <v>0</v>
-      </c>
-      <c r="R36" s="19">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
+      <c r="Y36" s="4">
+        <v>20</v>
       </c>
       <c r="Z36" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA36" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -13605,52 +13688,52 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" s="21">
-        <f>(SUM(H37:N37) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P37" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q37" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R37" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z37" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AA37" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -13695,11 +13778,11 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" s="21">
-        <f>(SUM(H38:N38) * 20)/8</f>
-        <v>7.5</v>
+        <v>1</v>
+      </c>
+      <c r="P38" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="Q38" s="18">
         <v>0</v>
@@ -13708,33 +13791,33 @@
         <v>0</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z38" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="Z38:Z40" si="3">SUM(S38:Y38)*0.4</f>
+        <v>40</v>
       </c>
       <c r="AA38" s="16">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -13758,10 +13841,10 @@
         <v>95</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="5">
         <v>1</v>
@@ -13773,52 +13856,52 @@
         <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" s="21">
-        <f>(SUM(H39:N39) * 20)/8</f>
-        <v>7.5</v>
+        <v>1</v>
+      </c>
+      <c r="P39" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q39" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R39" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z39" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AA39" s="16">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -13857,52 +13940,52 @@
         <v>1</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" s="21">
-        <f>(SUM(H40:N40) * 20)/8</f>
-        <v>12.5</v>
+        <v>1</v>
+      </c>
+      <c r="P40" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q40" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R40" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z40" s="20">
-        <f>SUM(S40:Y40)*0.4</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
       </c>
       <c r="AA40" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13947,6 +14030,7 @@
     <hyperlink ref="G8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -17296,10 +17380,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B5" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17412,6 +17496,116 @@
         <v>148</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.65625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11595,10 +11595,10 @@
         <v>5</v>
       </c>
       <c r="Q12" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R12" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S12">
         <v>10</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="AA12" s="16">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -11702,10 +11702,10 @@
         <v>20</v>
       </c>
       <c r="X13" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="20">
         <f t="shared" si="1"/>
@@ -11786,10 +11786,10 @@
         <v>20</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z14" s="20">
         <f t="shared" si="1"/>
@@ -12106,7 +12106,7 @@
         <v>10</v>
       </c>
       <c r="R18" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18">
         <v>10</v>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="AA18" s="16">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -12358,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="R21" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S21">
         <v>10</v>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="AA21" s="16">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -12778,7 +12778,7 @@
         <v>10</v>
       </c>
       <c r="R26" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S26">
         <v>10</v>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="AA26" s="16">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -13470,10 +13470,10 @@
         <v>20</v>
       </c>
       <c r="X34" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y34" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z34" s="20">
         <f t="shared" si="1"/>
@@ -13533,7 +13533,7 @@
         <v>20</v>
       </c>
       <c r="Q35" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R35" s="19">
         <v>30</v>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="AA35" s="16">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -13638,10 +13638,10 @@
         <v>20</v>
       </c>
       <c r="X36" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y36" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z36" s="20">
         <f t="shared" si="1"/>
@@ -14030,7 +14030,6 @@
     <hyperlink ref="G8" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId39"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12355,7 +12355,7 @@
         <v>20</v>
       </c>
       <c r="Q21" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R21" s="19">
         <v>30</v>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="AA21" s="16">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -12526,7 +12526,7 @@
         <v>10</v>
       </c>
       <c r="R23" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S23">
         <v>10</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="AA23" s="16">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12442,7 +12442,7 @@
         <v>10</v>
       </c>
       <c r="R22" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S22">
         <v>10</v>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="AA22" s="16">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10919,7 +10919,7 @@
         <v>17.5</v>
       </c>
       <c r="Q4" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R4" s="19">
         <v>30</v>
@@ -10951,7 +10951,7 @@
       </c>
       <c r="AA4" s="16">
         <f t="shared" ref="AA4:AA40" si="2">P4+Q4+R4+Z4</f>
-        <v>87.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -11849,10 +11849,10 @@
         <v>20</v>
       </c>
       <c r="Q15" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R15" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S15">
         <v>10</v>
@@ -11881,7 +11881,7 @@
       </c>
       <c r="AA15" s="16">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -12936,17 +12936,17 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="18">
         <v>0</v>
       </c>
       <c r="R28" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S28">
         <v>10</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="2"/>
-        <v>52.5</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11092,7 +11092,7 @@
         <v>10</v>
       </c>
       <c r="R6" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="AA6" s="16">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -13449,10 +13449,10 @@
         <v>20</v>
       </c>
       <c r="Q34" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R34" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S34" s="4">
         <v>10</v>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="AA34" s="16">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12271,10 +12271,10 @@
         <v>17.5</v>
       </c>
       <c r="Q20" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R20" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S20">
         <v>10</v>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="AA20" s="16">
         <f t="shared" si="2"/>
-        <v>57.5</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -12943,7 +12943,7 @@
         <v>15</v>
       </c>
       <c r="Q28" s="18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R28" s="19">
         <v>30</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -10649,7 +10649,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12915,10 +12915,10 @@
         <v>87</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5">
         <v>1</v>
@@ -12940,7 +12940,7 @@
       </c>
       <c r="P28" s="24">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="18">
         <v>10</v>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="AA28" s="16">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:27">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25280" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -10649,7 +10649,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -912,8 +912,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -964,8 +964,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1016,8 +1016,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1068,8 +1068,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1120,8 +1120,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1172,8 +1172,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1224,8 +1224,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1276,8 +1276,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1328,8 +1328,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1380,8 +1380,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1432,8 +1432,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1484,8 +1484,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1536,8 +1536,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1588,8 +1588,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1640,8 +1640,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1692,8 +1692,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1744,8 +1744,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1796,8 +1796,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1848,8 +1848,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1900,8 +1900,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1952,8 +1952,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2004,8 +2004,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2056,8 +2056,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2108,8 +2108,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2160,8 +2160,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2212,8 +2212,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2264,8 +2264,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2316,8 +2316,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2368,8 +2368,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2420,8 +2420,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2472,8 +2472,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2524,8 +2524,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2576,8 +2576,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2628,8 +2628,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2680,8 +2680,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2732,8 +2732,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2784,8 +2784,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2836,8 +2836,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2888,8 +2888,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2940,8 +2940,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2992,8 +2992,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3044,8 +3044,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3096,8 +3096,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3148,8 +3148,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3200,8 +3200,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3252,8 +3252,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3304,8 +3304,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3356,8 +3356,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3408,8 +3408,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3460,8 +3460,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3512,8 +3512,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3564,8 +3564,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3616,8 +3616,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3668,8 +3668,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3720,8 +3720,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3772,8 +3772,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3824,8 +3824,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3876,8 +3876,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3928,8 +3928,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -3980,8 +3980,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4032,8 +4032,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4084,8 +4084,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4136,8 +4136,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4188,8 +4188,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4240,8 +4240,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4292,8 +4292,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4344,8 +4344,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4396,8 +4396,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4448,8 +4448,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4500,8 +4500,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4552,8 +4552,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4604,8 +4604,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4656,8 +4656,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4708,8 +4708,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4760,8 +4760,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4812,8 +4812,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4864,8 +4864,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4916,8 +4916,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -4968,8 +4968,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5020,8 +5020,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5072,8 +5072,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5124,8 +5124,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5176,8 +5176,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5228,8 +5228,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5280,8 +5280,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5332,8 +5332,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5384,8 +5384,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5436,8 +5436,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5488,8 +5488,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5540,8 +5540,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5592,8 +5592,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5644,8 +5644,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5696,8 +5696,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5748,8 +5748,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5800,8 +5800,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5852,8 +5852,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5904,8 +5904,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5956,8 +5956,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6008,8 +6008,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6060,8 +6060,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6112,8 +6112,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6164,8 +6164,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6216,8 +6216,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6268,8 +6268,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6320,8 +6320,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6372,8 +6372,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6424,8 +6424,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6476,8 +6476,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6528,8 +6528,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6580,8 +6580,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6632,8 +6632,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6684,8 +6684,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6736,8 +6736,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6788,8 +6788,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6840,8 +6840,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6892,8 +6892,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6944,8 +6944,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -6996,8 +6996,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7048,8 +7048,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7100,8 +7100,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7152,8 +7152,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7204,8 +7204,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7256,8 +7256,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7308,8 +7308,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7360,8 +7360,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7412,8 +7412,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7464,8 +7464,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7516,8 +7516,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7568,8 +7568,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7620,8 +7620,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7672,8 +7672,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7724,8 +7724,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7776,8 +7776,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7828,8 +7828,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7880,8 +7880,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7932,8 +7932,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7984,8 +7984,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8036,8 +8036,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8088,8 +8088,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8140,8 +8140,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8192,8 +8192,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8244,8 +8244,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8296,8 +8296,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -8348,8 +8348,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -10648,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10661,17 +10661,17 @@
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
-    <col min="13" max="13" width="6.5" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4" style="5" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" customWidth="1"/>
+    <col min="14" max="14" width="3.1640625" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" style="21" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="18" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="18" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="19" customWidth="1"/>
     <col min="19" max="19" width="6.33203125" customWidth="1"/>
     <col min="20" max="20" width="9.5" customWidth="1"/>
     <col min="26" max="26" width="10.83203125" style="20"/>

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/Desktop/metodosnum_agodic2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6157EA8-E3B2-804A-873A-FE80C597ABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB5B20E-125E-174E-894D-257444EB046A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcial2" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1080,7 +1080,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1137,7 +1137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1194,7 +1194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1251,7 +1251,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1308,7 +1308,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1365,7 +1365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1422,7 +1422,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1479,7 +1479,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1536,7 +1536,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1593,7 +1593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1650,7 +1650,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1707,7 +1707,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1764,7 +1764,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1821,7 +1821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1878,7 +1878,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1935,7 +1935,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1992,7 +1992,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2049,7 +2049,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2106,7 +2106,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2163,7 +2163,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2220,7 +2220,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2277,7 +2277,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2334,7 +2334,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2391,7 +2391,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2448,7 +2448,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2505,7 +2505,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2562,7 +2562,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2619,7 +2619,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2676,7 +2676,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2733,7 +2733,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2790,7 +2790,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2847,7 +2847,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2904,7 +2904,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2961,7 +2961,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3018,7 +3018,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3075,7 +3075,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3132,7 +3132,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3189,7 +3189,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3246,7 +3246,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3303,7 +3303,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3360,7 +3360,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3417,7 +3417,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3474,7 +3474,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3531,7 +3531,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3588,7 +3588,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3645,7 +3645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3702,7 +3702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3759,7 +3759,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3816,7 +3816,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3873,7 +3873,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3930,7 +3930,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3987,7 +3987,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4044,7 +4044,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4101,7 +4101,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4158,7 +4158,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4215,7 +4215,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4272,7 +4272,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4329,7 +4329,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4386,7 +4386,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4443,7 +4443,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4500,7 +4500,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4557,7 +4557,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4614,7 +4614,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4671,7 +4671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4728,7 +4728,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4785,7 +4785,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4842,7 +4842,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4899,7 +4899,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4956,7 +4956,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5013,7 +5013,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5070,7 +5070,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5127,7 +5127,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5184,7 +5184,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5241,7 +5241,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5298,7 +5298,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5355,7 +5355,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5412,7 +5412,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5469,7 +5469,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5526,7 +5526,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5583,7 +5583,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5640,7 +5640,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5697,7 +5697,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5754,7 +5754,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5811,7 +5811,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5868,7 +5868,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5925,7 +5925,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5982,7 +5982,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6039,7 +6039,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6096,7 +6096,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6153,7 +6153,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6210,7 +6210,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6267,7 +6267,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6324,7 +6324,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6381,7 +6381,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6438,7 +6438,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6495,7 +6495,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6552,7 +6552,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6609,7 +6609,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6666,7 +6666,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6723,7 +6723,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6780,7 +6780,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6837,7 +6837,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6894,7 +6894,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6951,7 +6951,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7008,7 +7008,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7065,7 +7065,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7122,7 +7122,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7179,7 +7179,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7236,7 +7236,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7293,7 +7293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7350,7 +7350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7407,7 +7407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7464,7 +7464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7521,7 +7521,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7578,7 +7578,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7635,7 +7635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7692,7 +7692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7749,7 +7749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7806,7 +7806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7863,7 +7863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7920,7 +7920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7977,7 +7977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8034,7 +8034,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8091,7 +8091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8148,7 +8148,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8205,7 +8205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8262,7 +8262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8319,7 +8319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8376,7 +8376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8433,7 +8433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8490,7 +8490,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8547,7 +8547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8604,7 +8604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8661,7 +8661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8718,7 +8718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8775,7 +8775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8832,7 +8832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8889,7 +8889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8946,7 +8946,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9003,7 +9003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9060,7 +9060,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9117,7 +9117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9174,7 +9174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9236,7 +9236,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9293,7 +9293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9350,7 +9350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9407,7 +9407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9464,7 +9464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9521,7 +9521,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9578,7 +9578,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9635,7 +9635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9692,7 +9692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9749,7 +9749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9806,7 +9806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9863,7 +9863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9920,7 +9920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9977,7 +9977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10034,7 +10034,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10091,7 +10091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10148,7 +10148,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10205,7 +10205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10262,7 +10262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10319,7 +10319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10376,7 +10376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10433,7 +10433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10490,7 +10490,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10547,7 +10547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10604,7 +10604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10661,7 +10661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10718,7 +10718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10775,7 +10775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10832,7 +10832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10889,7 +10889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10946,7 +10946,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11003,7 +11003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11060,7 +11060,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11117,7 +11117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11174,7 +11174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11231,7 +11231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11288,7 +11288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11350,7 +11350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11407,7 +11407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11464,7 +11464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11521,7 +11521,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11578,7 +11578,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11635,7 +11635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11692,7 +11692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11749,7 +11749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11806,7 +11806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11863,7 +11863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11920,7 +11920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11977,7 +11977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12034,7 +12034,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12091,7 +12091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12148,7 +12148,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12205,7 +12205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12262,7 +12262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12319,7 +12319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12376,7 +12376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12433,7 +12433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12490,7 +12490,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12547,7 +12547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12604,7 +12604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12661,7 +12661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12718,7 +12718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12775,7 +12775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12832,7 +12832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12889,7 +12889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12946,7 +12946,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13003,7 +13003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13060,7 +13060,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13117,7 +13117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13174,7 +13174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13231,7 +13231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13288,7 +13288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13345,7 +13345,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13402,7 +13402,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13459,7 +13459,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13516,7 +13516,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13573,7 +13573,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13630,7 +13630,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13687,7 +13687,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13744,7 +13744,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13801,7 +13801,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13858,7 +13858,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13915,7 +13915,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13972,7 +13972,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14029,7 +14029,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14086,7 +14086,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14143,7 +14143,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14200,7 +14200,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14257,7 +14257,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14314,7 +14314,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14371,7 +14371,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14428,7 +14428,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14485,7 +14485,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14542,7 +14542,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14599,7 +14599,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14656,7 +14656,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14713,7 +14713,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14770,7 +14770,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14827,7 +14827,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14884,7 +14884,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14941,7 +14941,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14998,7 +14998,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15055,7 +15055,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15112,7 +15112,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15169,7 +15169,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15226,7 +15226,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15283,7 +15283,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15340,7 +15340,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15397,7 +15397,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15454,7 +15454,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15511,7 +15511,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15568,7 +15568,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15625,7 +15625,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15682,7 +15682,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15739,7 +15739,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15796,7 +15796,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15853,7 +15853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15910,7 +15910,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15967,7 +15967,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16024,7 +16024,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16081,7 +16081,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16138,7 +16138,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16195,7 +16195,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16252,7 +16252,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16309,7 +16309,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16366,7 +16366,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16423,7 +16423,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16480,7 +16480,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16537,7 +16537,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16594,7 +16594,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16651,7 +16651,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16708,7 +16708,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16765,7 +16765,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16822,7 +16822,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16879,7 +16879,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16936,7 +16936,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16993,7 +16993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17050,7 +17050,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17107,7 +17107,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17164,7 +17164,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17221,7 +17221,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17278,7 +17278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17335,7 +17335,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17392,7 +17392,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17449,7 +17449,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17506,7 +17506,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17563,7 +17563,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17620,7 +17620,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17677,7 +17677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17734,7 +17734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17791,7 +17791,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17848,7 +17848,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17905,7 +17905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17962,7 +17962,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18019,7 +18019,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18076,7 +18076,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18133,7 +18133,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18190,7 +18190,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18247,7 +18247,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18304,7 +18304,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18361,7 +18361,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18418,7 +18418,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18475,7 +18475,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18532,7 +18532,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18589,7 +18589,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18646,7 +18646,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18703,7 +18703,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18760,7 +18760,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18817,7 +18817,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18874,7 +18874,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18931,7 +18931,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18988,7 +18988,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19045,7 +19045,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19102,7 +19102,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19159,7 +19159,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19216,7 +19216,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19273,7 +19273,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19330,7 +19330,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19387,7 +19387,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19444,7 +19444,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19501,7 +19501,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19553,7 +19553,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19605,7 +19605,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19657,7 +19657,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19709,7 +19709,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19761,7 +19761,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19813,7 +19813,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19865,7 +19865,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19917,7 +19917,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19969,7 +19969,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20021,7 +20021,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20073,7 +20073,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20125,7 +20125,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20177,7 +20177,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20229,7 +20229,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20281,7 +20281,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20333,7 +20333,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20385,7 +20385,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20437,7 +20437,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20489,7 +20489,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20541,7 +20541,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20593,7 +20593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20645,7 +20645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20697,7 +20697,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20749,7 +20749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20801,7 +20801,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20853,7 +20853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20905,7 +20905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20957,7 +20957,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21009,7 +21009,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21061,7 +21061,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21113,7 +21113,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21165,7 +21165,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21217,7 +21217,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21269,7 +21269,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21321,7 +21321,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21373,7 +21373,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21425,7 +21425,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -28858,7 +28858,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29342,26 +29342,26 @@
         <v>174</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O7">
         <v>10</v>
@@ -29390,7 +29390,7 @@
       </c>
       <c r="W7" s="20">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="X7" s="16">
         <f>Parcial2!AA7</f>
@@ -29402,7 +29402,7 @@
       </c>
       <c r="Z7" s="28">
         <f t="shared" si="3"/>
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.2">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/Desktop/metodosnum_agodic2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB5B20E-125E-174E-894D-257444EB046A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8464F3-C1B7-3B46-AC77-930F025B3301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1080,7 +1080,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1137,7 +1137,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1194,7 +1194,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1251,7 +1251,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1308,7 +1308,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1365,7 +1365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1422,7 +1422,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1479,7 +1479,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1536,7 +1536,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1593,7 +1593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1650,7 +1650,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1707,7 +1707,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1764,7 +1764,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1821,7 +1821,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1878,7 +1878,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1935,7 +1935,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1992,7 +1992,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2049,7 +2049,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2106,7 +2106,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2163,7 +2163,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2220,7 +2220,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2277,7 +2277,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2334,7 +2334,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2391,7 +2391,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2448,7 +2448,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2505,7 +2505,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2562,7 +2562,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2619,7 +2619,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2676,7 +2676,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2733,7 +2733,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2790,7 +2790,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2847,7 +2847,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2904,7 +2904,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2961,7 +2961,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3018,7 +3018,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3075,7 +3075,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3132,7 +3132,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3189,7 +3189,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3246,7 +3246,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3303,7 +3303,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3360,7 +3360,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3417,7 +3417,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3474,7 +3474,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3531,7 +3531,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3588,7 +3588,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3645,7 +3645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3702,7 +3702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3759,7 +3759,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3816,7 +3816,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3873,7 +3873,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3930,7 +3930,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3987,7 +3987,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4044,7 +4044,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4101,7 +4101,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4158,7 +4158,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4215,7 +4215,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4272,7 +4272,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4329,7 +4329,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4386,7 +4386,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4443,7 +4443,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4500,7 +4500,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4557,7 +4557,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4614,7 +4614,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4671,7 +4671,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4728,7 +4728,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4785,7 +4785,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4842,7 +4842,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4899,7 +4899,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4956,7 +4956,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5013,7 +5013,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5070,7 +5070,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5127,7 +5127,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5184,7 +5184,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5241,7 +5241,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5298,7 +5298,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5355,7 +5355,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5412,7 +5412,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5469,7 +5469,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5526,7 +5526,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5583,7 +5583,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5640,7 +5640,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5697,7 +5697,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5754,7 +5754,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5811,7 +5811,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5868,7 +5868,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5925,7 +5925,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -5982,7 +5982,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6039,7 +6039,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6096,7 +6096,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6153,7 +6153,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6210,7 +6210,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6267,7 +6267,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6324,7 +6324,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6381,7 +6381,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6438,7 +6438,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6495,7 +6495,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6552,7 +6552,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6609,7 +6609,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6666,7 +6666,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6723,7 +6723,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6780,7 +6780,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6837,7 +6837,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6894,7 +6894,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6951,7 +6951,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7008,7 +7008,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7065,7 +7065,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7122,7 +7122,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7179,7 +7179,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7236,7 +7236,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7293,7 +7293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7350,7 +7350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7407,7 +7407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7464,7 +7464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7521,7 +7521,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7578,7 +7578,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7635,7 +7635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7692,7 +7692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7749,7 +7749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7806,7 +7806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7863,7 +7863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7920,7 +7920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7977,7 +7977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8034,7 +8034,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8091,7 +8091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8148,7 +8148,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8205,7 +8205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8262,7 +8262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8319,7 +8319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8376,7 +8376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8433,7 +8433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8490,7 +8490,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8547,7 +8547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8604,7 +8604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8661,7 +8661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8718,7 +8718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8775,7 +8775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8832,7 +8832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8889,7 +8889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8946,7 +8946,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9003,7 +9003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9060,7 +9060,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9117,7 +9117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9174,7 +9174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9236,7 +9236,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9293,7 +9293,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9350,7 +9350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9407,7 +9407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9464,7 +9464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9521,7 +9521,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9578,7 +9578,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9635,7 +9635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9692,7 +9692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9749,7 +9749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9806,7 +9806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9863,7 +9863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9920,7 +9920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9977,7 +9977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10034,7 +10034,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10091,7 +10091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10148,7 +10148,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10205,7 +10205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10262,7 +10262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10319,7 +10319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10376,7 +10376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10433,7 +10433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10490,7 +10490,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10547,7 +10547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10604,7 +10604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10661,7 +10661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10718,7 +10718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10775,7 +10775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10832,7 +10832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10889,7 +10889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10946,7 +10946,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11003,7 +11003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11060,7 +11060,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11117,7 +11117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11174,7 +11174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11231,7 +11231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11288,7 +11288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11350,7 +11350,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11407,7 +11407,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11464,7 +11464,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11521,7 +11521,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11578,7 +11578,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11635,7 +11635,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11692,7 +11692,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11749,7 +11749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11806,7 +11806,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11863,7 +11863,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11920,7 +11920,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11977,7 +11977,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12034,7 +12034,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12091,7 +12091,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12148,7 +12148,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12205,7 +12205,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12262,7 +12262,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12319,7 +12319,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12376,7 +12376,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12433,7 +12433,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12490,7 +12490,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12547,7 +12547,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12604,7 +12604,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12661,7 +12661,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12718,7 +12718,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12775,7 +12775,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12832,7 +12832,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12889,7 +12889,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12946,7 +12946,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13003,7 +13003,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13060,7 +13060,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13117,7 +13117,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13174,7 +13174,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13231,7 +13231,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13288,7 +13288,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13345,7 +13345,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13402,7 +13402,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13459,7 +13459,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13516,7 +13516,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13573,7 +13573,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13630,7 +13630,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13687,7 +13687,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13744,7 +13744,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13801,7 +13801,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13858,7 +13858,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13915,7 +13915,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -13972,7 +13972,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14029,7 +14029,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14086,7 +14086,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14143,7 +14143,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14200,7 +14200,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14257,7 +14257,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14314,7 +14314,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14371,7 +14371,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14428,7 +14428,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14485,7 +14485,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14542,7 +14542,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14599,7 +14599,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14656,7 +14656,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14713,7 +14713,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14770,7 +14770,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14827,7 +14827,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14884,7 +14884,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14941,7 +14941,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14998,7 +14998,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15055,7 +15055,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15112,7 +15112,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15169,7 +15169,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15226,7 +15226,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15283,7 +15283,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15340,7 +15340,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15397,7 +15397,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15454,7 +15454,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15511,7 +15511,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15568,7 +15568,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15625,7 +15625,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15682,7 +15682,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15739,7 +15739,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15796,7 +15796,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15853,7 +15853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15910,7 +15910,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -15967,7 +15967,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16024,7 +16024,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16081,7 +16081,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16138,7 +16138,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16195,7 +16195,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16252,7 +16252,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16309,7 +16309,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16366,7 +16366,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16423,7 +16423,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16480,7 +16480,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16537,7 +16537,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16594,7 +16594,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16651,7 +16651,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16708,7 +16708,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16765,7 +16765,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16822,7 +16822,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16879,7 +16879,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16936,7 +16936,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -16993,7 +16993,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17050,7 +17050,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17107,7 +17107,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17164,7 +17164,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17221,7 +17221,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17278,7 +17278,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17335,7 +17335,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17392,7 +17392,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17449,7 +17449,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17506,7 +17506,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17563,7 +17563,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17620,7 +17620,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17677,7 +17677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17734,7 +17734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17791,7 +17791,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17848,7 +17848,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17905,7 +17905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -17962,7 +17962,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18019,7 +18019,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18076,7 +18076,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18133,7 +18133,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18190,7 +18190,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18247,7 +18247,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18304,7 +18304,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18361,7 +18361,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18418,7 +18418,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18475,7 +18475,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18532,7 +18532,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18589,7 +18589,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18646,7 +18646,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18703,7 +18703,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18760,7 +18760,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18817,7 +18817,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18874,7 +18874,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18931,7 +18931,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -18988,7 +18988,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19045,7 +19045,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19102,7 +19102,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19159,7 +19159,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19216,7 +19216,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19273,7 +19273,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19330,7 +19330,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19387,7 +19387,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19444,7 +19444,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19501,7 +19501,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19553,7 +19553,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19605,7 +19605,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19657,7 +19657,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19709,7 +19709,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19761,7 +19761,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19813,7 +19813,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19865,7 +19865,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19917,7 +19917,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -19969,7 +19969,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20021,7 +20021,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20073,7 +20073,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20125,7 +20125,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20177,7 +20177,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20229,7 +20229,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20281,7 +20281,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20333,7 +20333,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20385,7 +20385,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20437,7 +20437,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20489,7 +20489,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20541,7 +20541,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20593,7 +20593,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20645,7 +20645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20697,7 +20697,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20749,7 +20749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20801,7 +20801,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20853,7 +20853,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20905,7 +20905,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -20957,7 +20957,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21009,7 +21009,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21061,7 +21061,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21113,7 +21113,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21165,7 +21165,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21217,7 +21217,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21269,7 +21269,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21321,7 +21321,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21373,7 +21373,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -21425,7 +21425,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -28858,7 +28858,7 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29535,7 +29535,7 @@
         <v>10</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q9">
         <v>20</v>
@@ -29554,11 +29554,11 @@
       </c>
       <c r="V9" s="29">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W9" s="20">
         <f t="shared" si="2"/>
-        <v>78.666666666666671</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="X9" s="16">
         <f>Parcial2!AA9</f>
@@ -29570,7 +29570,7 @@
       </c>
       <c r="Z9" s="28">
         <f t="shared" si="3"/>
-        <v>84.1388888888889</v>
+        <v>86.805555555555557</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -30297,7 +30297,7 @@
         <v>10</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18">
         <v>20</v>
@@ -30316,11 +30316,11 @@
       </c>
       <c r="V18" s="29">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W18" s="20">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="X18" s="16">
         <f>Parcial2!AA18</f>
@@ -30332,7 +30332,7 @@
       </c>
       <c r="Z18" s="28">
         <f t="shared" si="3"/>
-        <v>97.333333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -30381,7 +30381,7 @@
         <v>10</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q19">
         <v>20</v>
@@ -30400,11 +30400,11 @@
       </c>
       <c r="V19" s="29">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W19" s="20">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="X19" s="16">
         <f>Parcial2!AA19</f>
@@ -30416,7 +30416,7 @@
       </c>
       <c r="Z19" s="28">
         <f t="shared" si="3"/>
-        <v>97.333333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -30465,7 +30465,7 @@
         <v>10</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q20">
         <v>20</v>
@@ -30484,11 +30484,11 @@
       </c>
       <c r="V20" s="29">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="W20" s="20">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="X20" s="16">
         <f>Parcial2!AA20</f>
@@ -30500,7 +30500,7 @@
       </c>
       <c r="Z20" s="28">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
@@ -31280,10 +31280,10 @@
         <v>118</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="N30" s="24">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>20</v>
       </c>
       <c r="O30">
         <v>10</v>
@@ -31328,7 +31328,7 @@
       </c>
       <c r="W30" s="20">
         <f t="shared" si="2"/>
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="X30" s="16">
         <f>Parcial2!AA30</f>
@@ -31340,7 +31340,7 @@
       </c>
       <c r="Z30" s="28">
         <f t="shared" si="3"/>
-        <v>97.777777777777771</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">

--- a/metodosnum2020.xlsx
+++ b/metodosnum2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m/Desktop/metodosnum_agodic2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8464F3-C1B7-3B46-AC77-930F025B3301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9C1C8-2C95-144A-82E1-A43C597E1908}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28857,8 +28857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31112,26 +31112,26 @@
         <v>87</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O28">
         <v>10</v>
@@ -31160,7 +31160,7 @@
       </c>
       <c r="W28" s="20">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="X28" s="16">
         <f>Parcial2!AA28</f>
@@ -31172,7 +31172,7 @@
       </c>
       <c r="Z28" s="28">
         <f t="shared" si="3"/>
-        <v>93.333333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
